--- a/01_Input/00_CO Validation/Bangladesh - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Bangladesh - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27010"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNDP-BD\Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="444" documentId="13_ncr:1_{F9E229CD-093B-4957-8526-AA7B64B04BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0DE3C47-EA5C-4767-A424-B05E324C092A}"/>
+  <xr:revisionPtr revIDLastSave="445" documentId="13_ncr:1_{F9E229CD-093B-4957-8526-AA7B64B04BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DBE5F1C-56F9-419A-B81B-D0BF652D166A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -954,7 +954,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1007,12 +1007,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFCD5B4"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1266,7 +1260,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1609,204 +1603,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1837,47 +1642,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1906,18 +1699,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1936,30 +1723,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2014,7 +1777,190 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2359,854 +2305,854 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="F2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="132" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33" style="132" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="132" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="132" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="132" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="132" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="132" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="132" customWidth="1"/>
-    <col min="9" max="9" width="93.140625" style="132" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="132" customWidth="1"/>
-    <col min="11" max="11" width="18" style="132" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="132"/>
-    <col min="13" max="13" width="8.85546875" style="132"/>
-    <col min="14" max="14" width="31.7109375" style="132" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" style="132" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="132"/>
+    <col min="1" max="1" width="9.28515625" style="130" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" style="130" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="130" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="130" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="130" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="130" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="130" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="130" customWidth="1"/>
+    <col min="9" max="9" width="93.140625" style="130" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="130" customWidth="1"/>
+    <col min="11" max="11" width="18" style="130" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="130"/>
+    <col min="13" max="13" width="8.85546875" style="130"/>
+    <col min="14" max="14" width="31.7109375" style="130" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" style="130" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="130"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="45.75">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="149" t="s">
+      <c r="C1" s="189" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="149" t="s">
+      <c r="D1" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="143" t="s">
+      <c r="E1" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="143" t="s">
+      <c r="F1" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="143" t="s">
+      <c r="G1" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="143" t="s">
+      <c r="H1" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="143" t="s">
+      <c r="I1" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="143" t="s">
+      <c r="J1" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="143" t="s">
+      <c r="K1" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="143" t="s">
+      <c r="L1" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="143" t="s">
+      <c r="M1" s="188" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="143" t="s">
+      <c r="N1" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="143" t="s">
+      <c r="O1" s="188" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="143" t="s">
+      <c r="P1" s="188" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="143" t="s">
+      <c r="Q1" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="143" t="s">
+      <c r="R1" s="188" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="135" customFormat="1" ht="91.5" customHeight="1">
-      <c r="A2" s="150" t="s">
+    <row r="2" spans="1:18" s="131" customFormat="1" ht="91.5" customHeight="1">
+      <c r="A2" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="191" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="192" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="151">
+      <c r="D2" s="193">
         <v>3767810</v>
       </c>
-      <c r="E2" s="99" t="s">
+      <c r="E2" s="194" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="194" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="144"/>
-      <c r="H2" s="99">
+      <c r="G2" s="188"/>
+      <c r="H2" s="194">
         <v>1</v>
       </c>
-      <c r="I2" s="265" t="s">
+      <c r="I2" s="249" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="214" t="s">
+      <c r="J2" s="195" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215" t="s">
+      <c r="K2" s="196"/>
+      <c r="L2" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="71" t="s">
+      <c r="M2" s="194" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="71" t="s">
+      <c r="N2" s="194" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="71" t="s">
+      <c r="O2" s="194" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="194"/>
+      <c r="R2" s="194"/>
     </row>
     <row r="3" spans="1:18" ht="45.75">
-      <c r="A3" s="152"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="148" t="s">
+      <c r="A3" s="197"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="201" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="143"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="219"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="216"/>
-      <c r="L3" s="215"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="194"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="196"/>
+      <c r="M3" s="194"/>
+      <c r="N3" s="194"/>
+      <c r="O3" s="194"/>
+      <c r="P3" s="194"/>
+      <c r="Q3" s="194"/>
+      <c r="R3" s="194"/>
     </row>
     <row r="4" spans="1:18" ht="154.5" customHeight="1">
-      <c r="A4" s="154"/>
-      <c r="B4" s="138"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="71" t="s">
+      <c r="A4" s="205"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="147" t="s">
+      <c r="F4" s="209" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="143"/>
-      <c r="H4" s="71">
+      <c r="G4" s="188"/>
+      <c r="H4" s="194">
         <v>1573000</v>
       </c>
-      <c r="I4" s="219"/>
-      <c r="J4" s="175"/>
-      <c r="K4" s="216"/>
-      <c r="L4" s="215"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-    </row>
-    <row r="5" spans="1:18" s="135" customFormat="1" ht="60.75">
-      <c r="A5" s="162" t="s">
+      <c r="I4" s="202"/>
+      <c r="J4" s="210"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="196"/>
+      <c r="M4" s="194"/>
+      <c r="N4" s="194"/>
+      <c r="O4" s="194"/>
+      <c r="P4" s="194"/>
+      <c r="Q4" s="194"/>
+      <c r="R4" s="194"/>
+    </row>
+    <row r="5" spans="1:18" s="131" customFormat="1" ht="60.75">
+      <c r="A5" s="211" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="161" t="s">
+      <c r="B5" s="212" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="156"/>
-      <c r="D5" s="157">
+      <c r="C5" s="213"/>
+      <c r="D5" s="214">
         <v>1788991</v>
       </c>
-      <c r="E5" s="169" t="s">
+      <c r="E5" s="215" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="170" t="s">
+      <c r="F5" s="216" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="171"/>
-      <c r="H5" s="172">
+      <c r="G5" s="188"/>
+      <c r="H5" s="194">
         <v>100000</v>
       </c>
-      <c r="I5" s="215" t="s">
+      <c r="I5" s="196" t="s">
         <v>37</v>
       </c>
       <c r="J5" s="217" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="215"/>
-      <c r="L5" s="215"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
+      <c r="K5" s="196"/>
+      <c r="L5" s="196"/>
+      <c r="M5" s="194"/>
+      <c r="N5" s="194"/>
+      <c r="O5" s="194"/>
+      <c r="P5" s="194"/>
+      <c r="Q5" s="194"/>
+      <c r="R5" s="194"/>
     </row>
     <row r="6" spans="1:18" ht="81" customHeight="1">
-      <c r="A6" s="163"/>
-      <c r="B6" s="164"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="172" t="s">
+      <c r="A6" s="218"/>
+      <c r="B6" s="219"/>
+      <c r="C6" s="219"/>
+      <c r="D6" s="220"/>
+      <c r="E6" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="172" t="s">
+      <c r="F6" s="194" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="171">
+      <c r="G6" s="188">
         <v>0</v>
       </c>
-      <c r="H6" s="172">
+      <c r="H6" s="194">
         <v>15660</v>
       </c>
-      <c r="I6" s="219"/>
-      <c r="J6" s="218"/>
-      <c r="K6" s="216"/>
-      <c r="L6" s="215"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="221"/>
+      <c r="K6" s="204"/>
+      <c r="L6" s="196"/>
+      <c r="M6" s="194"/>
+      <c r="N6" s="194"/>
+      <c r="O6" s="194"/>
+      <c r="P6" s="194"/>
+      <c r="Q6" s="194"/>
+      <c r="R6" s="194"/>
     </row>
     <row r="7" spans="1:18" ht="200.25" customHeight="1">
-      <c r="A7" s="166"/>
-      <c r="B7" s="167"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="173" t="s">
+      <c r="A7" s="222"/>
+      <c r="B7" s="223"/>
+      <c r="C7" s="223"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="225" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="174" t="s">
+      <c r="F7" s="226" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="171">
+      <c r="G7" s="188">
         <v>0</v>
       </c>
-      <c r="H7" s="172">
+      <c r="H7" s="194">
         <v>200</v>
       </c>
-      <c r="I7" s="219"/>
-      <c r="J7" s="175"/>
-      <c r="K7" s="216"/>
-      <c r="L7" s="215"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="210"/>
+      <c r="K7" s="204"/>
+      <c r="L7" s="196"/>
+      <c r="M7" s="194"/>
+      <c r="N7" s="194"/>
+      <c r="O7" s="194"/>
+      <c r="P7" s="194"/>
+      <c r="Q7" s="194"/>
+      <c r="R7" s="194"/>
     </row>
     <row r="8" spans="1:18" s="128" customFormat="1" ht="91.5">
-      <c r="A8" s="178"/>
-      <c r="B8" s="179" t="s">
+      <c r="A8" s="227"/>
+      <c r="B8" s="228" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="180"/>
-      <c r="D8" s="181">
+      <c r="C8" s="229"/>
+      <c r="D8" s="193">
         <v>9212322</v>
       </c>
-      <c r="E8" s="99" t="s">
+      <c r="E8" s="194" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="99" t="s">
+      <c r="F8" s="194" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="99">
+      <c r="G8" s="194">
         <v>0</v>
       </c>
-      <c r="H8" s="99">
+      <c r="H8" s="194">
         <v>1</v>
       </c>
-      <c r="I8" s="141" t="s">
+      <c r="I8" s="226" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="177" t="s">
+      <c r="J8" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="215"/>
-      <c r="L8" s="215"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
+      <c r="K8" s="196"/>
+      <c r="L8" s="196"/>
+      <c r="M8" s="194"/>
+      <c r="N8" s="194"/>
+      <c r="O8" s="194"/>
+      <c r="P8" s="194"/>
+      <c r="Q8" s="194"/>
+      <c r="R8" s="194"/>
     </row>
     <row r="9" spans="1:18" s="129" customFormat="1" ht="60.75">
-      <c r="A9" s="183"/>
-      <c r="B9" s="184"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="147" t="s">
+      <c r="A9" s="230"/>
+      <c r="B9" s="231"/>
+      <c r="C9" s="232"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="194" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="71">
+      <c r="G9" s="194">
         <v>0</v>
       </c>
-      <c r="H9" s="71">
+      <c r="H9" s="194">
         <v>80</v>
       </c>
-      <c r="I9" s="71" t="s">
+      <c r="I9" s="194" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="208"/>
-      <c r="K9" s="215"/>
-      <c r="L9" s="215"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
+      <c r="J9" s="234"/>
+      <c r="K9" s="196"/>
+      <c r="L9" s="196"/>
+      <c r="M9" s="194"/>
+      <c r="N9" s="194"/>
+      <c r="O9" s="194"/>
+      <c r="P9" s="194"/>
+      <c r="Q9" s="194"/>
+      <c r="R9" s="194"/>
     </row>
     <row r="10" spans="1:18" s="129" customFormat="1" ht="45.75">
-      <c r="A10" s="187"/>
-      <c r="B10" s="188"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="190"/>
-      <c r="E10" s="147" t="s">
+      <c r="A10" s="235"/>
+      <c r="B10" s="236"/>
+      <c r="C10" s="237"/>
+      <c r="D10" s="238"/>
+      <c r="E10" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="71" t="s">
+      <c r="F10" s="194" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="71">
+      <c r="G10" s="194">
         <v>0</v>
       </c>
-      <c r="H10" s="71">
+      <c r="H10" s="194">
         <v>2</v>
       </c>
-      <c r="I10" s="71" t="s">
+      <c r="I10" s="194" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="209"/>
-      <c r="K10" s="215"/>
-      <c r="L10" s="215"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
+      <c r="J10" s="239"/>
+      <c r="K10" s="196"/>
+      <c r="L10" s="196"/>
+      <c r="M10" s="194"/>
+      <c r="N10" s="194"/>
+      <c r="O10" s="194"/>
+      <c r="P10" s="194"/>
+      <c r="Q10" s="194"/>
+      <c r="R10" s="194"/>
     </row>
     <row r="11" spans="1:18" ht="78" customHeight="1">
-      <c r="A11" s="192" t="s">
+      <c r="A11" s="240" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="193" t="s">
+      <c r="B11" s="241" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="194" t="s">
+      <c r="C11" s="242" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="182">
+      <c r="D11" s="243">
         <v>35200000</v>
       </c>
-      <c r="E11" s="172" t="s">
+      <c r="E11" s="194" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="172" t="s">
+      <c r="F11" s="194" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="172" t="s">
+      <c r="G11" s="194" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="172">
+      <c r="H11" s="194">
         <v>1.1200000000000001</v>
       </c>
-      <c r="I11" s="71" t="s">
+      <c r="I11" s="194" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="71" t="s">
+      <c r="J11" s="194" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="71"/>
-    </row>
-    <row r="12" spans="1:18" s="135" customFormat="1" ht="91.5">
-      <c r="A12" s="163"/>
-      <c r="B12" s="184"/>
-      <c r="C12" s="186"/>
-      <c r="D12" s="191">
+      <c r="K11" s="194"/>
+      <c r="L11" s="194"/>
+      <c r="M11" s="194"/>
+      <c r="N11" s="194"/>
+      <c r="O11" s="194"/>
+      <c r="P11" s="194"/>
+      <c r="Q11" s="194"/>
+      <c r="R11" s="194"/>
+    </row>
+    <row r="12" spans="1:18" s="131" customFormat="1" ht="91.5">
+      <c r="A12" s="218"/>
+      <c r="B12" s="231"/>
+      <c r="C12" s="233"/>
+      <c r="D12" s="244">
         <v>7000000</v>
       </c>
-      <c r="E12" s="99" t="s">
+      <c r="E12" s="194" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="99" t="s">
+      <c r="F12" s="194" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="99" t="s">
+      <c r="G12" s="194" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="99" t="s">
+      <c r="H12" s="194" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="99" t="s">
+      <c r="I12" s="194" t="s">
         <v>60</v>
       </c>
-      <c r="J12" s="210"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="71"/>
-    </row>
-    <row r="13" spans="1:18" s="135" customFormat="1" ht="76.5">
-      <c r="A13" s="166"/>
-      <c r="B13" s="188"/>
-      <c r="C13" s="190"/>
-      <c r="D13" s="207">
+      <c r="J12" s="234"/>
+      <c r="K12" s="194"/>
+      <c r="L12" s="194"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="194"/>
+      <c r="O12" s="194"/>
+      <c r="P12" s="194"/>
+      <c r="Q12" s="194"/>
+      <c r="R12" s="194"/>
+    </row>
+    <row r="13" spans="1:18" s="131" customFormat="1" ht="76.5">
+      <c r="A13" s="222"/>
+      <c r="B13" s="236"/>
+      <c r="C13" s="238"/>
+      <c r="D13" s="244">
         <v>1300000</v>
       </c>
-      <c r="E13" s="172" t="s">
+      <c r="E13" s="194" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="172" t="s">
+      <c r="F13" s="194" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="172" t="s">
+      <c r="G13" s="194" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="172">
+      <c r="H13" s="194">
         <v>0.35</v>
       </c>
-      <c r="I13" s="99" t="s">
+      <c r="I13" s="194" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="211"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
+      <c r="J13" s="239"/>
+      <c r="K13" s="194"/>
+      <c r="L13" s="194"/>
+      <c r="M13" s="194"/>
+      <c r="N13" s="194"/>
+      <c r="O13" s="194"/>
+      <c r="P13" s="194"/>
+      <c r="Q13" s="194"/>
+      <c r="R13" s="194"/>
     </row>
     <row r="14" spans="1:18" ht="106.5">
-      <c r="A14" s="195" t="s">
+      <c r="A14" s="215" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="212" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="196" t="s">
+      <c r="C14" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="206">
+      <c r="D14" s="245">
         <v>5356014</v>
       </c>
-      <c r="E14" s="172" t="s">
+      <c r="E14" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="172" t="s">
+      <c r="F14" s="194" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="206"/>
-      <c r="H14" s="206">
+      <c r="G14" s="245"/>
+      <c r="H14" s="245">
         <v>1730798</v>
       </c>
-      <c r="I14" s="71" t="s">
+      <c r="I14" s="194" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="213" t="s">
+      <c r="J14" s="229" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
+      <c r="K14" s="194"/>
+      <c r="L14" s="194"/>
+      <c r="M14" s="194"/>
+      <c r="N14" s="194"/>
+      <c r="O14" s="194"/>
+      <c r="P14" s="194"/>
+      <c r="Q14" s="194"/>
+      <c r="R14" s="194"/>
     </row>
     <row r="15" spans="1:18" ht="137.25">
-      <c r="A15" s="197"/>
-      <c r="B15" s="198"/>
-      <c r="C15" s="198"/>
-      <c r="D15" s="199"/>
-      <c r="E15" s="71" t="s">
+      <c r="A15" s="134"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="194" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="71" t="s">
+      <c r="F15" s="194" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="142">
+      <c r="G15" s="245">
         <v>30268</v>
       </c>
-      <c r="H15" s="142">
+      <c r="H15" s="245">
         <v>110000</v>
       </c>
-      <c r="I15" s="71" t="s">
+      <c r="I15" s="194" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="212"/>
-      <c r="K15" s="158">
+      <c r="J15" s="246"/>
+      <c r="K15" s="247">
         <v>0.4</v>
       </c>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-    </row>
-    <row r="16" spans="1:18" s="135" customFormat="1" ht="106.5">
-      <c r="A16" s="200"/>
-      <c r="B16" s="201"/>
-      <c r="C16" s="201"/>
-      <c r="D16" s="202"/>
-      <c r="E16" s="99" t="s">
+      <c r="L15" s="194"/>
+      <c r="M15" s="194"/>
+      <c r="N15" s="194"/>
+      <c r="O15" s="194"/>
+      <c r="P15" s="194"/>
+      <c r="Q15" s="194"/>
+      <c r="R15" s="194"/>
+    </row>
+    <row r="16" spans="1:18" s="131" customFormat="1" ht="106.5">
+      <c r="A16" s="137"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="194" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="172" t="s">
+      <c r="F16" s="194" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="172"/>
-      <c r="H16" s="206">
+      <c r="G16" s="194"/>
+      <c r="H16" s="245">
         <v>6</v>
       </c>
-      <c r="I16" s="99" t="s">
+      <c r="I16" s="194" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="212"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
+      <c r="J16" s="246"/>
+      <c r="K16" s="194"/>
+      <c r="L16" s="194"/>
+      <c r="M16" s="194"/>
+      <c r="N16" s="194"/>
+      <c r="O16" s="194"/>
+      <c r="P16" s="194"/>
+      <c r="Q16" s="194"/>
+      <c r="R16" s="194"/>
     </row>
     <row r="17" spans="1:18" ht="60.75">
-      <c r="A17" s="203"/>
-      <c r="B17" s="204"/>
-      <c r="C17" s="204"/>
-      <c r="D17" s="205"/>
-      <c r="E17" s="71" t="s">
+      <c r="A17" s="140"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="194" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="71" t="s">
+      <c r="F17" s="194" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71">
+      <c r="G17" s="194"/>
+      <c r="H17" s="194">
         <v>1220</v>
       </c>
-      <c r="I17" s="71" t="s">
+      <c r="I17" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="J17" s="209"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
+      <c r="J17" s="239"/>
+      <c r="K17" s="194"/>
+      <c r="L17" s="194"/>
+      <c r="M17" s="194"/>
+      <c r="N17" s="194"/>
+      <c r="O17" s="194"/>
+      <c r="P17" s="194"/>
+      <c r="Q17" s="194"/>
+      <c r="R17" s="194"/>
     </row>
     <row r="18" spans="1:18" ht="106.5">
-      <c r="A18" s="159" t="s">
+      <c r="A18" s="248" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="143" t="s">
+      <c r="B18" s="188" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="142">
+      <c r="C18" s="194"/>
+      <c r="D18" s="245">
         <v>475000</v>
       </c>
-      <c r="E18" s="71" t="s">
+      <c r="E18" s="194" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="71" t="s">
+      <c r="F18" s="194" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71" t="s">
+      <c r="G18" s="194"/>
+      <c r="H18" s="194" t="s">
         <v>79</v>
       </c>
-      <c r="I18" s="71" t="s">
+      <c r="I18" s="194" t="s">
         <v>80</v>
       </c>
-      <c r="J18" s="71" t="s">
+      <c r="J18" s="194" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-    </row>
-    <row r="19" spans="1:18" s="135" customFormat="1" ht="106.5">
-      <c r="A19" s="99"/>
-      <c r="B19" s="144" t="s">
+      <c r="K18" s="194"/>
+      <c r="L18" s="194"/>
+      <c r="M18" s="194"/>
+      <c r="N18" s="194"/>
+      <c r="O18" s="194"/>
+      <c r="P18" s="194"/>
+      <c r="Q18" s="194"/>
+      <c r="R18" s="194"/>
+    </row>
+    <row r="19" spans="1:18" s="131" customFormat="1" ht="106.5">
+      <c r="A19" s="194"/>
+      <c r="B19" s="188" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140">
+      <c r="C19" s="245"/>
+      <c r="D19" s="245">
         <v>150000</v>
       </c>
-      <c r="E19" s="99" t="s">
+      <c r="E19" s="194" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="172" t="s">
+      <c r="F19" s="194" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="172">
+      <c r="G19" s="194">
         <v>0</v>
       </c>
-      <c r="H19" s="172" t="s">
+      <c r="H19" s="194" t="s">
         <v>85</v>
       </c>
-      <c r="I19" s="99" t="s">
+      <c r="I19" s="194" t="s">
         <v>86</v>
       </c>
-      <c r="J19" s="130" t="s">
+      <c r="J19" s="225" t="s">
         <v>87</v>
       </c>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="71"/>
-    </row>
-    <row r="20" spans="1:18" s="135" customFormat="1" ht="121.5">
-      <c r="A20" s="99"/>
-      <c r="B20" s="99" t="s">
+      <c r="K19" s="194"/>
+      <c r="L19" s="194"/>
+      <c r="M19" s="194"/>
+      <c r="N19" s="194"/>
+      <c r="O19" s="194"/>
+      <c r="P19" s="194"/>
+      <c r="Q19" s="194"/>
+      <c r="R19" s="194"/>
+    </row>
+    <row r="20" spans="1:18" s="131" customFormat="1" ht="121.5">
+      <c r="A20" s="194"/>
+      <c r="B20" s="194" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="140"/>
-      <c r="D20" s="140">
+      <c r="C20" s="245"/>
+      <c r="D20" s="245">
         <v>600000</v>
       </c>
-      <c r="E20" s="99" t="s">
+      <c r="E20" s="194" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="99" t="s">
+      <c r="F20" s="194" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="160">
+      <c r="G20" s="247">
         <v>0.7</v>
       </c>
-      <c r="H20" s="99">
+      <c r="H20" s="194">
         <v>5000</v>
       </c>
-      <c r="I20" s="99" t="s">
+      <c r="I20" s="194" t="s">
         <v>90</v>
       </c>
-      <c r="J20" s="130" t="s">
+      <c r="J20" s="225" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-    </row>
-    <row r="21" spans="1:18" s="135" customFormat="1" ht="91.5">
-      <c r="A21" s="71"/>
-      <c r="B21" s="71" t="s">
+      <c r="K20" s="194"/>
+      <c r="L20" s="194"/>
+      <c r="M20" s="194"/>
+      <c r="N20" s="194"/>
+      <c r="O20" s="194"/>
+      <c r="P20" s="194"/>
+      <c r="Q20" s="194"/>
+      <c r="R20" s="194"/>
+    </row>
+    <row r="21" spans="1:18" s="131" customFormat="1" ht="91.5">
+      <c r="A21" s="194"/>
+      <c r="B21" s="194" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="142">
+      <c r="C21" s="194"/>
+      <c r="D21" s="245">
         <v>300000</v>
       </c>
-      <c r="E21" s="71" t="s">
+      <c r="E21" s="194" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="71" t="s">
+      <c r="F21" s="194" t="s">
         <v>93</v>
       </c>
-      <c r="G21" s="71">
+      <c r="G21" s="194">
         <v>0</v>
       </c>
-      <c r="H21" s="71">
+      <c r="H21" s="194">
         <v>1</v>
       </c>
-      <c r="I21" s="71" t="s">
+      <c r="I21" s="194" t="s">
         <v>94</v>
       </c>
-      <c r="J21" s="131" t="s">
+      <c r="J21" s="225" t="s">
         <v>91</v>
       </c>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
+      <c r="K21" s="194"/>
+      <c r="L21" s="194"/>
+      <c r="M21" s="194"/>
+      <c r="N21" s="194"/>
+      <c r="O21" s="194"/>
+      <c r="P21" s="194"/>
+      <c r="Q21" s="194"/>
+      <c r="R21" s="194"/>
     </row>
     <row r="22" spans="1:18" ht="91.5">
-      <c r="A22" s="71"/>
-      <c r="B22" s="71" t="s">
+      <c r="A22" s="194"/>
+      <c r="B22" s="194" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="142"/>
-      <c r="D22" s="145">
+      <c r="C22" s="245"/>
+      <c r="D22" s="132">
         <v>160000</v>
       </c>
-      <c r="E22" s="71" t="s">
+      <c r="E22" s="194" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="71" t="s">
+      <c r="F22" s="194" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="71">
+      <c r="G22" s="194">
         <v>1</v>
       </c>
-      <c r="H22" s="71">
+      <c r="H22" s="194">
         <v>3</v>
       </c>
-      <c r="I22" s="71" t="s">
+      <c r="I22" s="194" t="s">
         <v>97</v>
       </c>
-      <c r="J22" s="131" t="s">
+      <c r="J22" s="225" t="s">
         <v>91</v>
       </c>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-    </row>
-    <row r="23" spans="1:18" s="135" customFormat="1" ht="121.5">
-      <c r="A23" s="99"/>
-      <c r="B23" s="99" t="s">
+      <c r="K22" s="194"/>
+      <c r="L22" s="194"/>
+      <c r="M22" s="194"/>
+      <c r="N22" s="194"/>
+      <c r="O22" s="194"/>
+      <c r="P22" s="194"/>
+      <c r="Q22" s="194"/>
+      <c r="R22" s="194"/>
+    </row>
+    <row r="23" spans="1:18" s="131" customFormat="1" ht="121.5">
+      <c r="A23" s="194"/>
+      <c r="B23" s="194" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="146"/>
-      <c r="D23" s="146">
+      <c r="C23" s="132"/>
+      <c r="D23" s="132">
         <v>1250000</v>
       </c>
-      <c r="E23" s="99" t="s">
+      <c r="E23" s="194" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="99" t="s">
+      <c r="F23" s="194" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="99">
+      <c r="G23" s="194">
         <v>326</v>
       </c>
-      <c r="H23" s="172">
+      <c r="H23" s="194">
         <v>2000</v>
       </c>
-      <c r="I23" s="99" t="s">
+      <c r="I23" s="194" t="s">
         <v>101</v>
       </c>
-      <c r="J23" s="130" t="s">
+      <c r="J23" s="225" t="s">
         <v>91</v>
       </c>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
+      <c r="K23" s="194"/>
+      <c r="L23" s="194"/>
+      <c r="M23" s="194"/>
+      <c r="N23" s="194"/>
+      <c r="O23" s="194"/>
+      <c r="P23" s="194"/>
+      <c r="Q23" s="194"/>
+      <c r="R23" s="194"/>
     </row>
     <row r="24" spans="1:18" ht="275.25">
-      <c r="A24" s="71">
+      <c r="A24" s="194">
         <v>106912</v>
       </c>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="194" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="71"/>
-      <c r="D24" s="142">
+      <c r="C24" s="194"/>
+      <c r="D24" s="245">
         <v>489000</v>
       </c>
-      <c r="E24" s="71" t="s">
+      <c r="E24" s="194" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="71" t="s">
+      <c r="F24" s="194" t="s">
         <v>103</v>
       </c>
-      <c r="G24" s="71" t="s">
+      <c r="G24" s="194" t="s">
         <v>104</v>
       </c>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71" t="s">
+      <c r="H24" s="194"/>
+      <c r="I24" s="194" t="s">
         <v>105</v>
       </c>
-      <c r="J24" s="131" t="s">
+      <c r="J24" s="225" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71" t="s">
+      <c r="K24" s="194"/>
+      <c r="L24" s="194" t="s">
         <v>25</v>
       </c>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
+      <c r="M24" s="194"/>
+      <c r="N24" s="194"/>
+      <c r="O24" s="194"/>
+      <c r="P24" s="194"/>
+      <c r="Q24" s="194"/>
+      <c r="R24" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3262,7 +3208,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -3325,14 +3271,14 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="94" customFormat="1" ht="91.5" customHeight="1">
-      <c r="A2" s="240" t="s">
+      <c r="A2" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="243" t="s">
+      <c r="B2" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="233"/>
-      <c r="D2" s="236" t="s">
+      <c r="C2" s="164"/>
+      <c r="D2" s="167" t="s">
         <v>107</v>
       </c>
       <c r="E2" s="90" t="s">
@@ -3345,14 +3291,14 @@
       <c r="H2" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="266" t="s">
+      <c r="I2" s="250" t="s">
         <v>109</v>
       </c>
-      <c r="J2" s="220" t="s">
+      <c r="J2" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="225"/>
-      <c r="L2" s="222" t="s">
+      <c r="K2" s="158"/>
+      <c r="L2" s="155" t="s">
         <v>25</v>
       </c>
       <c r="M2" s="120" t="s">
@@ -3360,10 +3306,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="45.75">
-      <c r="A3" s="241"/>
-      <c r="B3" s="244"/>
-      <c r="C3" s="234"/>
-      <c r="D3" s="237"/>
+      <c r="A3" s="147"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="168"/>
       <c r="E3" s="67" t="s">
         <v>111</v>
       </c>
@@ -3372,17 +3318,17 @@
       <c r="H3" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="230"/>
-      <c r="J3" s="221"/>
-      <c r="K3" s="226"/>
-      <c r="L3" s="223"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="156"/>
       <c r="M3" s="121"/>
     </row>
     <row r="4" spans="1:13" ht="45.75">
-      <c r="A4" s="242"/>
-      <c r="B4" s="245"/>
-      <c r="C4" s="235"/>
-      <c r="D4" s="238"/>
+      <c r="A4" s="148"/>
+      <c r="B4" s="151"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="169"/>
       <c r="E4" s="69" t="s">
         <v>31</v>
       </c>
@@ -3393,17 +3339,17 @@
       <c r="H4" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="231"/>
-      <c r="J4" s="221"/>
-      <c r="K4" s="226"/>
-      <c r="L4" s="223"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="156"/>
       <c r="M4" s="121"/>
     </row>
     <row r="5" spans="1:13" s="94" customFormat="1" ht="76.5">
-      <c r="A5" s="246" t="s">
+      <c r="A5" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="229" t="s">
+      <c r="B5" s="144" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="91"/>
@@ -3418,19 +3364,19 @@
         <v>113</v>
       </c>
       <c r="H5" s="91"/>
-      <c r="I5" s="232" t="s">
+      <c r="I5" s="145" t="s">
         <v>114</v>
       </c>
-      <c r="J5" s="221"/>
-      <c r="K5" s="226"/>
-      <c r="L5" s="223"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="159"/>
+      <c r="L5" s="156"/>
       <c r="M5" s="120" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="37.5" customHeight="1">
-      <c r="A6" s="246"/>
-      <c r="B6" s="229"/>
+      <c r="A6" s="152"/>
+      <c r="B6" s="144"/>
       <c r="C6" s="62"/>
       <c r="D6" s="68"/>
       <c r="E6" s="69" t="s">
@@ -3443,15 +3389,15 @@
       <c r="H6" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="232"/>
-      <c r="J6" s="221"/>
-      <c r="K6" s="226"/>
-      <c r="L6" s="223"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="159"/>
+      <c r="L6" s="156"/>
       <c r="M6" s="121"/>
     </row>
     <row r="7" spans="1:13" ht="45" customHeight="1">
-      <c r="A7" s="246"/>
-      <c r="B7" s="229"/>
+      <c r="A7" s="152"/>
+      <c r="B7" s="144"/>
       <c r="C7" s="62"/>
       <c r="D7" s="68"/>
       <c r="E7" s="67" t="s">
@@ -3464,15 +3410,15 @@
       <c r="H7" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="I7" s="232"/>
-      <c r="J7" s="221"/>
-      <c r="K7" s="226"/>
-      <c r="L7" s="223"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="159"/>
+      <c r="L7" s="156"/>
       <c r="M7" s="121"/>
     </row>
     <row r="8" spans="1:13" s="101" customFormat="1" ht="45.75">
-      <c r="A8" s="228"/>
-      <c r="B8" s="229" t="s">
+      <c r="A8" s="161"/>
+      <c r="B8" s="144" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="90"/>
@@ -3497,15 +3443,15 @@
       <c r="J8" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="226"/>
-      <c r="L8" s="223"/>
+      <c r="K8" s="159"/>
+      <c r="L8" s="156"/>
       <c r="M8" s="122" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="15" customFormat="1" ht="60.75">
-      <c r="A9" s="228"/>
-      <c r="B9" s="229"/>
+      <c r="A9" s="161"/>
+      <c r="B9" s="144"/>
       <c r="C9" s="65"/>
       <c r="D9" s="66"/>
       <c r="E9" s="65" t="s">
@@ -3524,13 +3470,13 @@
         <v>47</v>
       </c>
       <c r="J9" s="65"/>
-      <c r="K9" s="226"/>
-      <c r="L9" s="223"/>
+      <c r="K9" s="159"/>
+      <c r="L9" s="156"/>
       <c r="M9" s="123"/>
     </row>
     <row r="10" spans="1:13" s="15" customFormat="1" ht="76.5">
-      <c r="A10" s="228"/>
-      <c r="B10" s="229"/>
+      <c r="A10" s="161"/>
+      <c r="B10" s="144"/>
       <c r="C10" s="65"/>
       <c r="D10" s="66"/>
       <c r="E10" s="65" t="s">
@@ -3549,15 +3495,15 @@
         <v>49</v>
       </c>
       <c r="J10" s="65"/>
-      <c r="K10" s="227"/>
-      <c r="L10" s="224"/>
+      <c r="K10" s="160"/>
+      <c r="L10" s="157"/>
       <c r="M10" s="123"/>
     </row>
     <row r="11" spans="1:13" ht="183">
-      <c r="A11" s="239" t="s">
+      <c r="A11" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="229" t="s">
+      <c r="B11" s="144" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="73"/>
@@ -3587,8 +3533,8 @@
       <c r="M11" s="121"/>
     </row>
     <row r="12" spans="1:13" s="94" customFormat="1" ht="106.5">
-      <c r="A12" s="239"/>
-      <c r="B12" s="229"/>
+      <c r="A12" s="143"/>
+      <c r="B12" s="144"/>
       <c r="C12" s="102"/>
       <c r="D12" s="103" t="s">
         <v>124</v>
@@ -3618,8 +3564,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="94" customFormat="1" ht="91.5">
-      <c r="A13" s="239"/>
-      <c r="B13" s="229"/>
+      <c r="A13" s="143"/>
+      <c r="B13" s="144"/>
       <c r="C13" s="102"/>
       <c r="D13" s="103" t="s">
         <v>127</v>
@@ -3652,7 +3598,7 @@
       <c r="A14" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="144" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="77" t="s">
@@ -3684,8 +3630,8 @@
       <c r="M14" s="121"/>
     </row>
     <row r="15" spans="1:13" ht="305.25">
-      <c r="A15" s="232"/>
-      <c r="B15" s="229"/>
+      <c r="A15" s="145"/>
+      <c r="B15" s="144"/>
       <c r="C15" s="77" t="s">
         <v>64</v>
       </c>
@@ -3717,8 +3663,8 @@
       <c r="M15" s="121"/>
     </row>
     <row r="16" spans="1:13" s="94" customFormat="1" ht="167.25">
-      <c r="A16" s="232"/>
-      <c r="B16" s="229"/>
+      <c r="A16" s="145"/>
+      <c r="B16" s="144"/>
       <c r="C16" s="110" t="s">
         <v>64</v>
       </c>
@@ -3743,8 +3689,8 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="106.5">
-      <c r="A17" s="232"/>
-      <c r="B17" s="229"/>
+      <c r="A17" s="145"/>
+      <c r="B17" s="144"/>
       <c r="C17" s="77" t="s">
         <v>64</v>
       </c>
@@ -3994,14 +3940,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
     <mergeCell ref="J2:J7"/>
     <mergeCell ref="L2:L10"/>
     <mergeCell ref="K2:K10"/>
@@ -4011,6 +3949,14 @@
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -4096,10 +4042,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="91.5">
-      <c r="A2" s="255" t="s">
+      <c r="A2" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="250" t="s">
+      <c r="B2" s="173" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="1"/>
@@ -4116,19 +4062,19 @@
       <c r="H2" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="I2" s="247" t="s">
+      <c r="I2" s="170" t="s">
         <v>158</v>
       </c>
       <c r="J2" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="247" t="s">
+      <c r="K2" s="170" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="76.5">
-      <c r="A3" s="256"/>
-      <c r="B3" s="251"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="174"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="19" t="s">
@@ -4141,13 +4087,13 @@
       <c r="H3" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="I3" s="248"/>
+      <c r="I3" s="171"/>
       <c r="J3" s="43"/>
-      <c r="K3" s="248"/>
+      <c r="K3" s="171"/>
     </row>
     <row r="4" spans="1:11" ht="60.75">
-      <c r="A4" s="257"/>
-      <c r="B4" s="252"/>
+      <c r="A4" s="180"/>
+      <c r="B4" s="175"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="9" t="s">
@@ -4160,15 +4106,15 @@
       <c r="H4" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="I4" s="249"/>
+      <c r="I4" s="172"/>
       <c r="J4" s="44"/>
-      <c r="K4" s="249"/>
+      <c r="K4" s="172"/>
     </row>
     <row r="5" spans="1:11" ht="106.5">
-      <c r="A5" s="255" t="s">
+      <c r="A5" s="178" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="250" t="s">
+      <c r="B5" s="173" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="1"/>
@@ -4183,19 +4129,19 @@
       <c r="H5" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="I5" s="247" t="s">
+      <c r="I5" s="170" t="s">
         <v>163</v>
       </c>
       <c r="J5" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="247" t="s">
+      <c r="K5" s="170" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="45.75">
-      <c r="A6" s="256"/>
-      <c r="B6" s="251"/>
+      <c r="A6" s="179"/>
+      <c r="B6" s="174"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="9" t="s">
@@ -4206,13 +4152,13 @@
       <c r="H6" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="I6" s="248"/>
+      <c r="I6" s="171"/>
       <c r="J6" s="43"/>
-      <c r="K6" s="248"/>
+      <c r="K6" s="171"/>
     </row>
     <row r="7" spans="1:11" ht="106.5">
-      <c r="A7" s="256"/>
-      <c r="B7" s="251"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="174"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="19" t="s">
@@ -4223,13 +4169,13 @@
       <c r="H7" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="I7" s="248"/>
+      <c r="I7" s="171"/>
       <c r="J7" s="44"/>
-      <c r="K7" s="249"/>
+      <c r="K7" s="172"/>
     </row>
     <row r="8" spans="1:11" ht="167.25">
-      <c r="A8" s="257"/>
-      <c r="B8" s="252"/>
+      <c r="A8" s="180"/>
+      <c r="B8" s="175"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="9" t="s">
@@ -4240,17 +4186,17 @@
       <c r="H8" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="I8" s="249"/>
+      <c r="I8" s="172"/>
       <c r="J8" s="57" t="s">
         <v>24</v>
       </c>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:11" s="15" customFormat="1" ht="45.75">
-      <c r="A9" s="258" t="s">
+      <c r="A9" s="181" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="250" t="s">
+      <c r="B9" s="173" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="7"/>
@@ -4278,8 +4224,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="15" customFormat="1" ht="60.75">
-      <c r="A10" s="259"/>
-      <c r="B10" s="251"/>
+      <c r="A10" s="182"/>
+      <c r="B10" s="174"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
@@ -4301,8 +4247,8 @@
       <c r="K10" s="50"/>
     </row>
     <row r="11" spans="1:11" s="15" customFormat="1" ht="45.75">
-      <c r="A11" s="260"/>
-      <c r="B11" s="252"/>
+      <c r="A11" s="183"/>
+      <c r="B11" s="175"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
@@ -4326,10 +4272,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="137.25">
-      <c r="A12" s="253" t="s">
+      <c r="A12" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="254" t="s">
+      <c r="B12" s="177" t="s">
         <v>51</v>
       </c>
       <c r="C12" s="16"/>
@@ -4359,8 +4305,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="76.5">
-      <c r="A13" s="253"/>
-      <c r="B13" s="254"/>
+      <c r="A13" s="176"/>
+      <c r="B13" s="177"/>
       <c r="C13" s="16"/>
       <c r="D13" s="4" t="s">
         <v>178</v>
@@ -4388,8 +4334,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="60.75">
-      <c r="A14" s="253"/>
-      <c r="B14" s="254"/>
+      <c r="A14" s="176"/>
+      <c r="B14" s="177"/>
       <c r="C14" s="16"/>
       <c r="D14" s="4" t="s">
         <v>181</v>
@@ -4431,7 +4377,7 @@
       <c r="A16" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="250" t="s">
+      <c r="B16" s="173" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="24" t="s">
@@ -4461,8 +4407,8 @@
       <c r="K16" s="20"/>
     </row>
     <row r="17" spans="1:11" ht="183">
-      <c r="A17" s="247"/>
-      <c r="B17" s="251"/>
+      <c r="A17" s="170"/>
+      <c r="B17" s="174"/>
       <c r="C17" s="24" t="s">
         <v>64</v>
       </c>
@@ -4490,8 +4436,8 @@
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" ht="167.25">
-      <c r="A18" s="248"/>
-      <c r="B18" s="251"/>
+      <c r="A18" s="171"/>
+      <c r="B18" s="174"/>
       <c r="C18" s="24" t="s">
         <v>64</v>
       </c>
@@ -4517,8 +4463,8 @@
       <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" ht="106.5">
-      <c r="A19" s="249"/>
-      <c r="B19" s="252"/>
+      <c r="A19" s="172"/>
+      <c r="B19" s="175"/>
       <c r="C19" s="24" t="s">
         <v>64</v>
       </c>
@@ -4814,7 +4760,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="261" t="s">
+      <c r="A2" s="184" t="s">
         <v>197</v>
       </c>
       <c r="B2" t="s">
@@ -4825,7 +4771,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="261"/>
+      <c r="A3" s="184"/>
       <c r="B3" t="s">
         <v>21</v>
       </c>
@@ -4834,7 +4780,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="261"/>
+      <c r="A4" s="184"/>
       <c r="B4" t="s">
         <v>83</v>
       </c>
@@ -4843,7 +4789,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="262" t="s">
+      <c r="A5" s="185" t="s">
         <v>201</v>
       </c>
       <c r="B5" t="s">
@@ -4854,7 +4800,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="262"/>
+      <c r="A6" s="185"/>
       <c r="B6" t="s">
         <v>203</v>
       </c>
@@ -4863,7 +4809,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="262"/>
+      <c r="A7" s="185"/>
       <c r="B7" t="s">
         <v>57</v>
       </c>
@@ -4872,7 +4818,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="262"/>
+      <c r="A8" s="185"/>
       <c r="B8" t="s">
         <v>99</v>
       </c>
@@ -4881,7 +4827,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="262"/>
+      <c r="A9" s="185"/>
       <c r="B9" t="s">
         <v>68</v>
       </c>
@@ -4890,7 +4836,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="263" t="s">
+      <c r="A10" s="186" t="s">
         <v>167</v>
       </c>
       <c r="B10" t="s">
@@ -4901,7 +4847,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="263"/>
+      <c r="A11" s="186"/>
       <c r="B11" t="s">
         <v>71</v>
       </c>
@@ -4910,7 +4856,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="264" t="s">
+      <c r="A12" s="187" t="s">
         <v>211</v>
       </c>
       <c r="B12" t="s">
@@ -4921,7 +4867,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="264"/>
+      <c r="A13" s="187"/>
       <c r="B13" t="s">
         <v>213</v>
       </c>
@@ -4930,7 +4876,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="264"/>
+      <c r="A14" s="187"/>
       <c r="B14" t="s">
         <v>215</v>
       </c>
@@ -4972,6 +4918,68 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
+      <UserInfo>
+        <DisplayName>Akiko Yamamoto</DisplayName>
+        <AccountId>84</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Arif Mohammad Faisal</DisplayName>
+        <AccountId>1690</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Maliha Muzammil</DisplayName>
+        <AccountId>1969</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Van Nguyen</DisplayName>
+        <AccountId>1970</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Riad Meddeb</DisplayName>
+        <AccountId>9</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Benjamin Keller</DisplayName>
+        <AccountId>1227</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Bahtiyar Kurt</DisplayName>
+        <AccountId>206</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Stefano Pistolese</DisplayName>
+        <AccountId>772</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -5220,70 +5228,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
-      <UserInfo>
-        <DisplayName>Akiko Yamamoto</DisplayName>
-        <AccountId>84</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Arif Mohammad Faisal</DisplayName>
-        <AccountId>1690</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Maliha Muzammil</DisplayName>
-        <AccountId>1969</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Van Nguyen</DisplayName>
-        <AccountId>1970</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Riad Meddeb</DisplayName>
-        <AccountId>9</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Benjamin Keller</DisplayName>
-        <AccountId>1227</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Bahtiyar Kurt</DisplayName>
-        <AccountId>206</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Stefano Pistolese</DisplayName>
-        <AccountId>772</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3011BB0-07FE-4680-800E-7F4C36F905EE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5291,5 +5237,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3011BB0-07FE-4680-800E-7F4C36F905EE}"/>
 </file>
--- a/01_Input/00_CO Validation/Bangladesh - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Bangladesh - Energy Projects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/UNDP/SEH/Energy-Moonshot-Tracker/01_Input/00_CO Validation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNDP-BD\Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E19F15A-A975-5244-9AD7-74D7C53FF354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="653" documentId="13_ncr:1_{F9E229CD-093B-4957-8526-AA7B64B04BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6F11B5D-5BEE-4400-A444-2EA03BC518C6}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="740" windowWidth="19680" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="251">
   <si>
     <t>Project ID</t>
   </si>
@@ -86,7 +86,7 @@
     <t>Link</t>
   </si>
   <si>
-    <t xml:space="preserve">Budget </t>
+    <t>Budget</t>
   </si>
   <si>
     <t>Beneficiary Category</t>
@@ -155,6 +155,17 @@
     <t>No. of waste to energy facilities, rooftop PV, energy efficiency in building, etc</t>
   </si>
   <si>
+    <t>The project addresses the development challenge of increased negative economic and environmental impacts from fossil use and other non-sustainable practices in urban areas by enabling low-carbon interventions and investments in energy-efficiency (EE) and renewable energy (RE) in buildings and built environment and to support urban development in Bangladesh. 
+GHG emission reduction of 1.573 million tons of tCO2 (lifetime) resulting from EE, RE and W2E interventions (Direct) and 4.718 million tons of CO2 as consequential (indirect) emission reduction after the project’s end. About 600 Kw of energy generation is expected.
+1 Bangladesh Low-Carbon Cities Network established ; Database on energy performance on commercial building established at SREDA;BNBC revised with EE adopted 
+2 waste to energy
+3 rooftop PV (public)
+10 rooftop PV (private)
+6 energy effociency in buildings(public)
+24 energy efficiency in buildings(private)
+On comment column: Expected to generate 1MW of energy</t>
+  </si>
+  <si>
     <t>GEF</t>
   </si>
   <si>
@@ -179,7 +190,7 @@
     <t>National</t>
   </si>
   <si>
-    <t>GHG Emission Reduction</t>
+    <t>GHG Emissions Reduction</t>
   </si>
   <si>
     <t>GHG Emission Reduction target in updated NDC</t>
@@ -195,6 +206,14 @@
   </si>
   <si>
     <t>Number of people benefiting from the development of EV ecosystem</t>
+  </si>
+  <si>
+    <t>This Project is to reduce GHG emissions with EV ecosystem development that promote environmentally friendly, energy-efficient, low-carbon transport and urban systems in Bangladesh with an enhanced policy-regulatory institutional framework with appropriate regulations for EVs and EV charging stations, accompanied by tailored capacity-building and awareness-raising efforts
+Total no. of project beneficiaries are 672,600 that includes passengers of e-bus, 2-3-4 wheelers, technicians, govt staffs, private sectors etc.
+Assessment of Regulatory Framework and Market development for EV and EVCS, Recycling and Disposal of Batteries with strategy for environmentally sound manufacturing of EV and EV Components;Preparation of PPP business models for local charging stations and installation of hybrid grid-solar charging stations as well as, Battery recycling and reuse in Bangladesh
+100 persons will be trained on operation and maintenance of charging infrastructure (e-Buses and 2-3-wheeler station; 100 persons will be trained on environmentally sound and safe handling and recycling of batteries and verification
+Installation of 4 Charging Station (EV Charger, 300-500 kW) for e-Buses; Installation of 3 Solar Hybrid (80 kW; 25 to 30 kW from Solar) for 2-3-4 Wheelers; 
+On comment column: It is expected that 100,000 people will be benefitted</t>
   </si>
   <si>
     <t xml:space="preserve">GHG Emission Reduction target </t>
@@ -217,6 +236,12 @@
     <t>Number of nano-grids installed and operational.</t>
   </si>
   <si>
+    <t>Nano-grid will cover 20-25 households
+30 nano-grids with covering
+300 to 450 households 
+On comment column: It is expected that about 1MW energy will be generated</t>
+  </si>
+  <si>
     <t>Adaptation Fund</t>
   </si>
   <si>
@@ -270,6 +295,16 @@
     <t>325 HH</t>
   </si>
   <si>
+    <t>54 community level drinking water supply with electric solar powered motors implemented by Union Parishads
+Budget is updated
+On comment column: About 325 household will be benefitted</t>
+  </si>
+  <si>
+    <t>7 community level rooftop solar home systems  implemented by Union Parishads
+Budget is updated
+On comment column: It is expected that about 350KW energy will be generated</t>
+  </si>
+  <si>
     <t>00110796(AC Unit) &amp; 00117012 (PMU)</t>
   </si>
   <si>
@@ -280,6 +315,10 @@
   </si>
   <si>
     <t>GHG emission reductions (ton CO2eq)</t>
+  </si>
+  <si>
+    <t>The project’s ultimate goal is to implement structural changes in RAC manufacturing and servicing sectors for cleaner production and contribute to the quality of people's lives, through the protection of the ozone layer and reduction in direct and indirect emissions. This project will phase-out 310.78 kg HCFC-22 equivalent to 17.09 ODP tons, which is 66% of Bangladesh´s consumption of HCFCs in RAC manufacturing sector, contributing to the reduction target for 2025.
+Baseline: Consumption of ODS 47.22 ODP ton</t>
   </si>
   <si>
     <t>MLF</t>
@@ -299,6 +338,10 @@
   </si>
   <si>
     <t>Number of small enterprises benefiting from the project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The HPMP Stage II project is supporting six private sector small enterprises namely Unitech Products (BD) Ltd., Elite Hi-Tech Industries Ltd., AC Bazar Industry, Supreme Air Conditioning, Cooling Point Engineering Services and Walton Hi-Tech Industries Ltd with a funding support of  5,356,014.
+On comment column: Six private companies are getting benefits from the project.The objective of this project is to phase out of 17.09 ODP tones (1,730,798 CO2-eq tons) from 5 air conditioning and 1 chiller manufacturing/assembler enterprises. </t>
   </si>
   <si>
     <t xml:space="preserve">Number of individuals who participate in trainings for energy activities. </t>
@@ -351,6 +394,11 @@
     <t>5000 HH</t>
   </si>
   <si>
+    <t>local Villages of the CHT area faces serious health related problems due to high GHG gas emitting cooking stoves that are also fuel inefficient. A2I has been working with local innovators to develop energy efficient fuel stoves that are also environmentally friendly for the residents of that area.
+15-25% of households using improved cooking stove
+On comment column: About 5,000 Household got the benefits</t>
+  </si>
+  <si>
     <t>Government of Bangladesh-50 million, Other donors (Gate Foundation, FB, Vital strategy, etc.): 9 million)</t>
   </si>
   <si>
@@ -360,6 +408,10 @@
     <t>% of people with restrictive access to household water in remote CHT areas</t>
   </si>
   <si>
+    <t>The southeastern part of Bangladesh is extensively hilly region and the people living here are not habituated to use modern water technologies. So, they have to collect water from natural sources particularly from the downhill springs for drinking, household chores and irrigation. To solve the water crisis of the communities at these regions, A2I has developed a water lifting system using Hydraulic Ram Pump to supply water from downhill source to uphill utilizing the water hammer effect for drinking and irrigation purposes at Bandarban, Bangladesh.
+On comment column: About 5000 farmers get benefits</t>
+  </si>
+  <si>
     <t>Govt of Bangladesh-50 million, Other donors (Gate Foundation, FB, Vital strategy, etc.): 9 million)</t>
   </si>
   <si>
@@ -397,6 +449,10 @@
   </si>
   <si>
     <t>No. of schools that are using the Multimedia Classroom</t>
+  </si>
+  <si>
+    <t>As we progress through the generations, Technological advancement is happening at an exponential rate. To fully support our youth, technological advancements are also essential in the education sector. On top of that the Bangladeshi Government has taken the initiative to engulf the education stream of Bangladesh under one digital format. To accomodate this initiative, we developed a highly efficient Multimedia Classroom system that is completely powered through solar energy. With this innovation, we can empower our local youth in rural areas to recieve the same education as urban areas.
+On comment column: About 2000 students get benefits</t>
   </si>
   <si>
     <t>Bangladesh: First Biennial Update Report to the UNFCCC</t>
@@ -429,6 +485,9 @@
 5. Gaps and constraints indentified</t>
   </si>
   <si>
+    <t xml:space="preserve">Budget </t>
+  </si>
+  <si>
     <t>Category</t>
   </si>
   <si>
@@ -462,6 +521,9 @@
     <t>Policy and Regulatory Frameworks</t>
   </si>
   <si>
+    <t>GHG Emission Reduction</t>
+  </si>
+  <si>
     <t>00116395</t>
   </si>
   <si>
@@ -835,9 +897,6 @@
   </si>
   <si>
     <t>Any other type of beneficiary (please specify justification in Notes)</t>
-  </si>
-  <si>
-    <t>Budget</t>
   </si>
 </sst>
 </file>
@@ -849,7 +908,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -861,7 +920,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -937,7 +995,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -955,7 +1013,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -963,7 +1020,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -987,7 +1043,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1175,6 +1231,15 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1184,13 +1249,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1533,13 +1636,73 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1548,33 +1711,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1583,6 +1830,12 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1609,6 +1862,150 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1617,183 +2014,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2121,341 +2341,355 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47B4E4F-0AFC-46D6-97E6-4C30BF9BA353}">
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33" style="35" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="128" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="128" customWidth="1"/>
-    <col min="7" max="7" width="21.5" style="128" customWidth="1"/>
-    <col min="8" max="8" width="35.5" style="128" customWidth="1"/>
-    <col min="9" max="9" width="19.5" style="128" customWidth="1"/>
-    <col min="10" max="10" width="18" style="128" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" style="128" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" style="128"/>
-    <col min="13" max="13" width="31.6640625" style="128" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.6640625" style="128" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="128" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5" style="128" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.1640625" style="128" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" style="128" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="30.33203125" style="128" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" style="128" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.83203125" style="128"/>
+    <col min="1" max="1" width="9.28515625" style="128" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" style="128" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="128" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="128" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="128" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="128" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="128" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="128" customWidth="1"/>
+    <col min="9" max="9" width="93.140625" style="128" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="128" customWidth="1"/>
+    <col min="11" max="11" width="18" style="128" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="128" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="128"/>
+    <col min="14" max="14" width="31.7109375" style="128" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" style="128" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" style="128" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" style="128" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.140625" style="128" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" style="128" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" style="128" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" style="128" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.85546875" style="128"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="161" t="s">
+    <row r="1" spans="1:21" ht="30.75">
+      <c r="A1" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="162" t="s">
+      <c r="B1" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="162" t="s">
+      <c r="C1" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="162" t="s">
-        <v>239</v>
-      </c>
-      <c r="E1" s="159" t="s">
+      <c r="D1" s="142" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="130" t="s">
+      <c r="F1" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="130" t="s">
+      <c r="G1" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="130" t="s">
+      <c r="H1" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="130" t="s">
+      <c r="I1" s="141" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="130" t="s">
+      <c r="K1" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="151" t="s">
+      <c r="L1" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="152" t="s">
+      <c r="M1" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="151" t="s">
+      <c r="N1" s="201" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="151" t="s">
+      <c r="O1" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="152" t="s">
+      <c r="P1" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="152" t="s">
+      <c r="Q1" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="153" t="s">
+      <c r="R1" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="154" t="s">
+      <c r="S1" s="204" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="153" t="s">
+      <c r="T1" s="203" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="154" t="s">
+      <c r="U1" s="204" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="129" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="163" t="s">
+    <row r="2" spans="1:21" s="129" customFormat="1" ht="91.5" customHeight="1">
+      <c r="A2" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="164" t="s">
+      <c r="C2" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="146">
         <v>3767810</v>
       </c>
-      <c r="E2" s="134" t="s">
+      <c r="E2" s="69" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="130"/>
+      <c r="G2" s="141"/>
       <c r="H2" s="69">
         <v>1</v>
       </c>
-      <c r="I2" s="131" t="s">
+      <c r="I2" s="252" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="63"/>
-      <c r="K2" s="155" t="s">
+      <c r="J2" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="72"/>
-      <c r="M2" s="134" t="s">
+      <c r="K2" s="63"/>
+      <c r="L2" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="154" t="s">
+        <v>29</v>
+      </c>
       <c r="O2" s="72"/>
       <c r="P2" s="72"/>
       <c r="Q2" s="72"/>
-      <c r="R2" s="68" t="s">
+      <c r="R2" s="72"/>
+      <c r="S2" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="72"/>
+      <c r="U2" s="68"/>
+    </row>
+    <row r="3" spans="1:21" ht="45.75">
+      <c r="A3" s="148"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="152" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="141"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="210"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="205" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="72"/>
+      <c r="N3" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="72"/>
-      <c r="T2" s="68"/>
-    </row>
-    <row r="3" spans="1:20" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="163"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="132" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="130"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="155" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="72"/>
-      <c r="M3" s="134" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72" t="s">
+      <c r="O3" s="72" t="s">
         <v>32</v>
       </c>
+      <c r="P3" s="72"/>
       <c r="Q3" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="68"/>
-      <c r="S3" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="T3" s="68"/>
-    </row>
-    <row r="4" spans="1:20" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="163"/>
-      <c r="B4" s="161"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="134" t="s">
+      <c r="R3" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="68"/>
+      <c r="T3" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="134" t="s">
+      <c r="U3" s="68"/>
+    </row>
+    <row r="4" spans="1:21" ht="154.5" customHeight="1">
+      <c r="A4" s="155"/>
+      <c r="B4" s="156"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="158"/>
+      <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="130"/>
+      <c r="F4" s="154" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="141"/>
       <c r="H4" s="69">
         <v>1573000</v>
       </c>
-      <c r="I4" s="135"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="155" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="72"/>
-      <c r="M4" s="134" t="s">
+      <c r="I4" s="210"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="199"/>
+      <c r="L4" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="154" t="s">
+        <v>29</v>
+      </c>
       <c r="O4" s="72"/>
       <c r="P4" s="72"/>
       <c r="Q4" s="72"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="68"/>
-    </row>
-    <row r="5" spans="1:20" s="129" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="166" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="167" t="s">
+      <c r="R4" s="72"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="68"/>
+    </row>
+    <row r="5" spans="1:21" s="129" customFormat="1" ht="60.75">
+      <c r="A5" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="161"/>
-      <c r="D5" s="11">
+      <c r="B5" s="161" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="162"/>
+      <c r="D5" s="163">
         <v>1788991</v>
       </c>
-      <c r="E5" s="142" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="137" t="s">
+      <c r="E5" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="130"/>
+      <c r="F5" s="165" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="141"/>
       <c r="H5" s="69">
         <v>100000</v>
       </c>
-      <c r="I5" s="150" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="63"/>
-      <c r="K5" s="155" t="s">
+      <c r="I5" s="209" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="200" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="72"/>
-      <c r="M5" s="134" t="s">
+      <c r="K5" s="63"/>
+      <c r="L5" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="154" t="s">
+        <v>29</v>
+      </c>
       <c r="O5" s="72"/>
       <c r="P5" s="72"/>
       <c r="Q5" s="72"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="68"/>
-    </row>
-    <row r="6" spans="1:20" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="72"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="68"/>
+    </row>
+    <row r="6" spans="1:21" ht="81" customHeight="1">
       <c r="A6" s="166"/>
-      <c r="B6" s="166"/>
-      <c r="C6" s="166"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="134" t="s">
-        <v>34</v>
+      <c r="B6" s="167"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="168"/>
+      <c r="E6" t="s">
+        <v>35</v>
       </c>
       <c r="F6" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="130">
+        <v>42</v>
+      </c>
+      <c r="G6" s="141">
         <v>0</v>
       </c>
       <c r="H6" s="69">
         <v>15660</v>
       </c>
-      <c r="I6" s="133"/>
-      <c r="J6" s="149"/>
-      <c r="K6" s="155" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="72"/>
-      <c r="M6" s="134" t="s">
+      <c r="I6" s="210"/>
+      <c r="J6" s="153"/>
+      <c r="K6" s="199"/>
+      <c r="L6" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="154" t="s">
+        <v>29</v>
+      </c>
       <c r="O6" s="72"/>
       <c r="P6" s="72"/>
       <c r="Q6" s="72"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="68"/>
-    </row>
-    <row r="7" spans="1:20" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="166"/>
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="160" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="139" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="130">
+      <c r="R6" s="72"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="68"/>
+    </row>
+    <row r="7" spans="1:21" ht="200.25" customHeight="1">
+      <c r="A7" s="169"/>
+      <c r="B7" s="170"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="172" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="173" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="141">
         <v>0</v>
       </c>
       <c r="H7" s="69">
         <v>200</v>
       </c>
-      <c r="I7" s="135"/>
-      <c r="J7" s="149"/>
-      <c r="K7" s="155" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="72"/>
-      <c r="M7" s="134" t="s">
+      <c r="I7" s="210"/>
+      <c r="J7" s="159"/>
+      <c r="K7" s="199"/>
+      <c r="L7" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="154" t="s">
+        <v>29</v>
+      </c>
       <c r="O7" s="72"/>
       <c r="P7" s="72"/>
       <c r="Q7" s="72"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="68"/>
-    </row>
-    <row r="8" spans="1:20" s="126" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="168">
+      <c r="R7" s="72"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="68"/>
+    </row>
+    <row r="8" spans="1:21" s="126" customFormat="1" ht="91.5">
+      <c r="A8" s="174">
         <v>93848</v>
       </c>
-      <c r="B8" s="167" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="169" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="B8" s="175" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="206" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="146">
         <v>9212322</v>
       </c>
-      <c r="E8" s="134" t="s">
+      <c r="E8" s="69" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G8" s="69">
         <v>0</v>
@@ -2463,37 +2697,40 @@
       <c r="H8" s="69">
         <v>1</v>
       </c>
-      <c r="I8" s="136" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="63"/>
-      <c r="K8" s="155" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="72"/>
-      <c r="M8" s="134" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8" s="72"/>
+      <c r="I8" s="173" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="164" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="63"/>
+      <c r="L8" s="205" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="72"/>
+      <c r="N8" s="154" t="s">
+        <v>50</v>
+      </c>
       <c r="O8" s="72"/>
       <c r="P8" s="72"/>
       <c r="Q8" s="72"/>
-      <c r="R8" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="S8" s="72"/>
-      <c r="T8" s="68"/>
-    </row>
-    <row r="9" spans="1:20" s="127" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9" s="168"/>
-      <c r="B9" s="167"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="134" t="s">
-        <v>48</v>
+      <c r="R8" s="72"/>
+      <c r="S8" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" s="72"/>
+      <c r="U8" s="68"/>
+    </row>
+    <row r="9" spans="1:21" s="127" customFormat="1" ht="60.75">
+      <c r="A9" s="177"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="154" t="s">
+        <v>51</v>
       </c>
       <c r="F9" s="69" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G9" s="69">
         <v>0</v>
@@ -2501,33 +2738,36 @@
       <c r="H9" s="69">
         <v>80</v>
       </c>
-      <c r="I9" s="141"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="155" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="72"/>
-      <c r="M9" s="134" t="s">
-        <v>47</v>
-      </c>
-      <c r="N9" s="72"/>
+      <c r="I9" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="181"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="205" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="72"/>
+      <c r="N9" s="154" t="s">
+        <v>50</v>
+      </c>
       <c r="O9" s="72"/>
       <c r="P9" s="72"/>
       <c r="Q9" s="72"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="68"/>
-    </row>
-    <row r="10" spans="1:20" s="127" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A10" s="168"/>
-      <c r="B10" s="167"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="134" t="s">
-        <v>48</v>
+      <c r="R9" s="72"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="68"/>
+    </row>
+    <row r="10" spans="1:21" s="127" customFormat="1" ht="45.75">
+      <c r="A10" s="182"/>
+      <c r="B10" s="183"/>
+      <c r="C10" s="184"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="154" t="s">
+        <v>51</v>
       </c>
       <c r="F10" s="69" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G10" s="69">
         <v>0</v>
@@ -2535,431 +2775,464 @@
       <c r="H10" s="69">
         <v>2</v>
       </c>
-      <c r="I10" s="143"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="155" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="72"/>
-      <c r="M10" s="134" t="s">
-        <v>47</v>
-      </c>
-      <c r="N10" s="72"/>
+      <c r="I10" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="186"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="205" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="72"/>
+      <c r="N10" s="154" t="s">
+        <v>50</v>
+      </c>
       <c r="O10" s="72"/>
       <c r="P10" s="72"/>
       <c r="Q10" s="72"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="68"/>
-    </row>
-    <row r="11" spans="1:20" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="166" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="167" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="164" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="173">
+      <c r="R10" s="72"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="68"/>
+    </row>
+    <row r="11" spans="1:21" ht="78" customHeight="1">
+      <c r="A11" s="187" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="188" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="189" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="190">
         <v>35200000</v>
       </c>
-      <c r="E11" s="134" t="s">
+      <c r="E11" s="69" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="69" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G11" s="69" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H11" s="69">
         <v>1.1200000000000001</v>
       </c>
       <c r="I11" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" s="69"/>
-      <c r="K11" s="155" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="72"/>
-      <c r="M11" s="134" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="69"/>
+      <c r="L11" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="154" t="s">
+        <v>29</v>
+      </c>
       <c r="O11" s="72"/>
       <c r="P11" s="72"/>
       <c r="Q11" s="72"/>
-      <c r="R11" s="68" t="s">
+      <c r="R11" s="72"/>
+      <c r="S11" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="T11" s="72"/>
+      <c r="U11" s="68"/>
+    </row>
+    <row r="12" spans="1:21" ht="91.5">
+      <c r="A12" s="166"/>
+      <c r="B12" s="178"/>
+      <c r="C12" s="180"/>
+      <c r="D12" s="191">
+        <v>7000000</v>
+      </c>
+      <c r="E12" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="181"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="205" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="72"/>
+      <c r="N12" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="S11" s="72"/>
-      <c r="T11" s="68"/>
-    </row>
-    <row r="12" spans="1:20" ht="80" x14ac:dyDescent="0.2">
-      <c r="A12" s="166"/>
-      <c r="B12" s="167"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="173">
-        <v>7000000</v>
-      </c>
-      <c r="E12" s="134" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="141"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="155" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="72"/>
-      <c r="M12" s="134" t="s">
-        <v>28</v>
-      </c>
-      <c r="N12" s="72"/>
       <c r="O12" s="72"/>
       <c r="P12" s="72"/>
       <c r="Q12" s="72"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="68"/>
-    </row>
-    <row r="13" spans="1:20" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13" s="166"/>
-      <c r="B13" s="167"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="173">
+      <c r="R12" s="72"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="68"/>
+    </row>
+    <row r="13" spans="1:21" ht="76.5">
+      <c r="A13" s="169"/>
+      <c r="B13" s="183"/>
+      <c r="C13" s="185"/>
+      <c r="D13" s="191">
         <v>1300000</v>
       </c>
-      <c r="E13" s="134" t="s">
+      <c r="E13" s="69" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="69" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G13" s="69" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H13" s="69">
         <v>0.35</v>
       </c>
-      <c r="I13" s="143"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="155" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="72"/>
-      <c r="M13" s="134" t="s">
+      <c r="I13" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="186"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="N13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="154" t="s">
+        <v>29</v>
+      </c>
       <c r="O13" s="72"/>
       <c r="P13" s="72"/>
       <c r="Q13" s="72"/>
-      <c r="R13" s="68" t="s">
+      <c r="R13" s="72"/>
+      <c r="S13" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="T13" s="72"/>
+      <c r="U13" s="68"/>
+    </row>
+    <row r="14" spans="1:21" ht="106.5">
+      <c r="A14" s="164" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="161" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="131" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="192">
+        <v>5356014</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="192"/>
+      <c r="H14" s="192">
+        <v>1730798</v>
+      </c>
+      <c r="I14" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="176" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="69"/>
+      <c r="L14" s="205" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="72"/>
+      <c r="N14" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="S13" s="72"/>
-      <c r="T13" s="68"/>
-    </row>
-    <row r="14" spans="1:20" ht="80" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="167" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="164" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="11">
-        <v>5356014</v>
-      </c>
-      <c r="E14" s="134" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144">
-        <v>1730798</v>
-      </c>
-      <c r="I14" s="140" t="s">
-        <v>67</v>
-      </c>
-      <c r="J14" s="69"/>
-      <c r="K14" s="155" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="72"/>
-      <c r="M14" s="134" t="s">
-        <v>28</v>
-      </c>
-      <c r="N14" s="72"/>
       <c r="O14" s="72"/>
       <c r="P14" s="72"/>
       <c r="Q14" s="72"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="68"/>
-    </row>
-    <row r="15" spans="1:20" ht="128" x14ac:dyDescent="0.2">
-      <c r="A15" s="170"/>
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="134" t="s">
-        <v>68</v>
+      <c r="R14" s="72"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="68"/>
+    </row>
+    <row r="15" spans="1:21" ht="137.25">
+      <c r="A15" s="132"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="69" t="s">
+        <v>74</v>
       </c>
       <c r="F15" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="144">
+        <v>75</v>
+      </c>
+      <c r="G15" s="192">
         <v>30268</v>
       </c>
-      <c r="H15" s="144">
+      <c r="H15" s="192">
         <v>110000</v>
       </c>
-      <c r="I15" s="145"/>
-      <c r="J15" s="146">
+      <c r="I15" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="193"/>
+      <c r="K15" s="194">
         <v>0.4</v>
       </c>
-      <c r="K15" s="155" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="72"/>
-      <c r="M15" s="134" t="s">
+      <c r="L15" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="N15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="154" t="s">
+        <v>29</v>
+      </c>
       <c r="O15" s="72"/>
       <c r="P15" s="72"/>
       <c r="Q15" s="72"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="68"/>
-    </row>
-    <row r="16" spans="1:20" s="129" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A16" s="170"/>
-      <c r="B16" s="170"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="174"/>
-      <c r="E16" s="134" t="s">
-        <v>71</v>
+      <c r="R15" s="72"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="68"/>
+    </row>
+    <row r="16" spans="1:21" s="129" customFormat="1" ht="106.5">
+      <c r="A16" s="135"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="69" t="s">
+        <v>77</v>
       </c>
       <c r="F16" s="69" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G16" s="69"/>
-      <c r="H16" s="144">
+      <c r="H16" s="192">
         <v>6</v>
       </c>
-      <c r="I16" s="145"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="155" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="72"/>
-      <c r="M16" s="134" t="s">
+      <c r="I16" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="193"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="154" t="s">
+        <v>29</v>
+      </c>
       <c r="O16" s="72"/>
       <c r="P16" s="72"/>
       <c r="Q16" s="72"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="68"/>
-    </row>
-    <row r="17" spans="1:20" ht="64" x14ac:dyDescent="0.2">
-      <c r="A17" s="170"/>
-      <c r="B17" s="170"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="174"/>
-      <c r="E17" s="134" t="s">
-        <v>41</v>
+      <c r="R16" s="72"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="68"/>
+    </row>
+    <row r="17" spans="1:21" ht="60.75">
+      <c r="A17" s="138"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="69" t="s">
+        <v>43</v>
       </c>
       <c r="F17" s="69" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G17" s="69"/>
       <c r="H17" s="69">
         <v>1220</v>
       </c>
-      <c r="I17" s="143"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="155" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" s="72"/>
-      <c r="M17" s="134" t="s">
+      <c r="I17" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="186"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="N17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="154" t="s">
+        <v>29</v>
+      </c>
       <c r="O17" s="72"/>
       <c r="P17" s="72"/>
       <c r="Q17" s="72"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="68"/>
-    </row>
-    <row r="18" spans="1:20" ht="96" x14ac:dyDescent="0.2">
-      <c r="A18" s="163" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="161" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11">
+      <c r="R17" s="72"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="68"/>
+    </row>
+    <row r="18" spans="1:21" ht="106.5">
+      <c r="A18" s="195" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="141" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="69"/>
+      <c r="D18" s="192">
         <v>475000</v>
       </c>
-      <c r="E18" s="134" t="s">
+      <c r="E18" s="69" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="69" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G18" s="69"/>
       <c r="H18" s="69" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I18" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="J18" s="69"/>
-      <c r="K18" s="155" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" s="72"/>
-      <c r="M18" s="134" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="69"/>
+      <c r="L18" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="N18" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72" t="s">
-        <v>81</v>
-      </c>
+      <c r="M18" s="72"/>
+      <c r="N18" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="72"/>
       <c r="Q18" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="R18" s="68"/>
-      <c r="S18" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="T18" s="68"/>
-    </row>
-    <row r="19" spans="1:20" s="129" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
+        <v>88</v>
+      </c>
+      <c r="R18" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="S18" s="68"/>
+      <c r="T18" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="U18" s="68"/>
+    </row>
+    <row r="19" spans="1:21" s="129" customFormat="1" ht="106.5">
+      <c r="A19" s="69">
         <v>93849</v>
       </c>
-      <c r="B19" s="161" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="171" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="11">
+      <c r="B19" s="141" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="207" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="192">
         <v>150000</v>
       </c>
-      <c r="E19" s="134" t="s">
-        <v>85</v>
+      <c r="E19" s="69" t="s">
+        <v>92</v>
       </c>
       <c r="F19" s="69" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G19" s="69">
         <v>0</v>
       </c>
       <c r="H19" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="I19" s="138" t="s">
-        <v>88</v>
-      </c>
-      <c r="J19" s="69"/>
-      <c r="K19" s="155" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="72"/>
-      <c r="M19" s="134" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="172" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" s="69"/>
+      <c r="L19" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="N19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="154" t="s">
+        <v>29</v>
+      </c>
       <c r="O19" s="72"/>
       <c r="P19" s="72"/>
       <c r="Q19" s="72"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="68"/>
-    </row>
-    <row r="20" spans="1:20" s="129" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="165"/>
-      <c r="D20" s="11">
+      <c r="R19" s="72"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="68"/>
+    </row>
+    <row r="20" spans="1:21" s="129" customFormat="1" ht="121.5">
+      <c r="A20" s="69"/>
+      <c r="B20" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="192"/>
+      <c r="D20" s="192">
         <v>600000</v>
       </c>
-      <c r="E20" s="134" t="s">
-        <v>60</v>
+      <c r="E20" s="69" t="s">
+        <v>63</v>
       </c>
       <c r="F20" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="146">
+        <v>98</v>
+      </c>
+      <c r="G20" s="194">
         <v>0.7</v>
       </c>
       <c r="H20" s="69">
         <v>5000</v>
       </c>
-      <c r="I20" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20" s="69"/>
-      <c r="K20" s="155" t="s">
-        <v>27</v>
-      </c>
-      <c r="L20" s="72"/>
-      <c r="M20" s="134" t="s">
+      <c r="I20" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="J20" s="172" t="s">
+        <v>100</v>
+      </c>
+      <c r="K20" s="69"/>
+      <c r="L20" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="N20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="154" t="s">
+        <v>29</v>
+      </c>
       <c r="O20" s="72"/>
       <c r="P20" s="72"/>
       <c r="Q20" s="72"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="68"/>
-    </row>
-    <row r="21" spans="1:20" s="129" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11">
+      <c r="R20" s="72"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="68"/>
+    </row>
+    <row r="21" spans="1:21" s="129" customFormat="1" ht="91.5">
+      <c r="A21" s="69"/>
+      <c r="B21" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="69"/>
+      <c r="D21" s="192">
         <v>300000</v>
       </c>
-      <c r="E21" s="134" t="s">
+      <c r="E21" s="69" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="69" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G21" s="69">
         <v>0</v>
@@ -2967,47 +3240,50 @@
       <c r="H21" s="69">
         <v>1</v>
       </c>
-      <c r="I21" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" s="69"/>
-      <c r="K21" s="155" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="72"/>
-      <c r="M21" s="134" t="s">
+      <c r="I21" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="172" t="s">
+        <v>100</v>
+      </c>
+      <c r="K21" s="69"/>
+      <c r="L21" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72" t="s">
-        <v>95</v>
-      </c>
+      <c r="M21" s="72"/>
+      <c r="N21" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" s="72"/>
       <c r="Q21" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="R21" s="68"/>
-      <c r="S21" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="T21" s="68"/>
-    </row>
-    <row r="22" spans="1:20" ht="80" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="165"/>
-      <c r="D22" s="175">
+        <v>104</v>
+      </c>
+      <c r="R21" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="S21" s="68"/>
+      <c r="T21" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="U21" s="68"/>
+    </row>
+    <row r="22" spans="1:21" ht="144" customHeight="1">
+      <c r="A22" s="69"/>
+      <c r="B22" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="192"/>
+      <c r="D22" s="196">
         <v>160000</v>
       </c>
-      <c r="E22" s="134" t="s">
+      <c r="E22" s="69" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="69" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G22" s="69">
         <v>1</v>
@@ -3015,47 +3291,50 @@
       <c r="H22" s="69">
         <v>3</v>
       </c>
-      <c r="I22" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="J22" s="69"/>
-      <c r="K22" s="155" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22" s="72"/>
-      <c r="M22" s="134" t="s">
+      <c r="I22" s="69" t="s">
+        <v>108</v>
+      </c>
+      <c r="J22" s="172" t="s">
+        <v>100</v>
+      </c>
+      <c r="K22" s="69"/>
+      <c r="L22" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="N22" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72" t="s">
-        <v>32</v>
-      </c>
+      <c r="M22" s="72"/>
+      <c r="N22" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="P22" s="72"/>
       <c r="Q22" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="R22" s="68"/>
-      <c r="S22" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="T22" s="68"/>
-    </row>
-    <row r="23" spans="1:20" s="129" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="172"/>
-      <c r="D23" s="175">
+      <c r="R22" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="S22" s="68"/>
+      <c r="T22" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="U22" s="68"/>
+    </row>
+    <row r="23" spans="1:21" s="129" customFormat="1" ht="121.5">
+      <c r="A23" s="69"/>
+      <c r="B23" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="130"/>
+      <c r="D23" s="196">
         <v>1250000</v>
       </c>
-      <c r="E23" s="134" t="s">
-        <v>102</v>
+      <c r="E23" s="69" t="s">
+        <v>111</v>
       </c>
       <c r="F23" s="69" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G23" s="69">
         <v>326</v>
@@ -3063,103 +3342,113 @@
       <c r="H23" s="69">
         <v>2000</v>
       </c>
-      <c r="I23" s="138" t="s">
-        <v>91</v>
-      </c>
-      <c r="J23" s="69"/>
-      <c r="K23" s="155" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" s="72"/>
-      <c r="M23" s="134" t="s">
+      <c r="I23" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="J23" s="172" t="s">
+        <v>100</v>
+      </c>
+      <c r="K23" s="69"/>
+      <c r="L23" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="N23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="154" t="s">
+        <v>29</v>
+      </c>
       <c r="O23" s="72"/>
       <c r="P23" s="72"/>
       <c r="Q23" s="72"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="68"/>
-    </row>
-    <row r="24" spans="1:20" ht="272" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
+      <c r="R23" s="72"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="68"/>
+    </row>
+    <row r="24" spans="1:21" ht="275.25">
+      <c r="A24" s="69">
         <v>106912</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="169" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="11">
+      <c r="B24" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="208" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="192">
         <v>489000</v>
       </c>
-      <c r="E24" s="134" t="s">
+      <c r="E24" s="69" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="69" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G24" s="69" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H24" s="69"/>
-      <c r="I24" s="138" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24" s="69"/>
-      <c r="K24" s="155" t="s">
+      <c r="I24" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="J24" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="L24" s="72"/>
-      <c r="M24" s="134" t="s">
+      <c r="K24" s="69"/>
+      <c r="L24" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="N24" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72" t="s">
-        <v>81</v>
-      </c>
+      <c r="M24" s="72"/>
+      <c r="N24" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="P24" s="72"/>
       <c r="Q24" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="R24" s="68"/>
-      <c r="S24" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="T24" s="68"/>
+        <v>88</v>
+      </c>
+      <c r="R24" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="S24" s="68"/>
+      <c r="T24" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="U24" s="68"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I2:I4"/>
+  </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P24" xr:uid="{50BC6D76-B0DE-424B-A0F5-F3C85CF484BB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q24" xr:uid="{50BC6D76-B0DE-424B-A0F5-F3C85CF484BB}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O24" xr:uid="{62483C04-38BE-4F6D-B81D-E1F3BC42C93A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P24" xr:uid="{62483C04-38BE-4F6D-B81D-E1F3BC42C93A}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M24" xr:uid="{08FCFAEA-6806-46C6-962B-8245A865ECF4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N24" xr:uid="{08FCFAEA-6806-46C6-962B-8245A865ECF4}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N24" xr:uid="{CBE1B3B5-5FA1-4DA6-AA75-48A7E29C1A64}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O24" xr:uid="{CBE1B3B5-5FA1-4DA6-AA75-48A7E29C1A64}">
       <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K24" xr:uid="{07A695C6-F7C4-4590-B736-45B3A80CC5E9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L24" xr:uid="{07A695C6-F7C4-4590-B736-45B3A80CC5E9}">
       <formula1>"Non-VF, VF"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L24" xr:uid="{25115A9B-B357-42FD-B1AC-232114B311C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M24" xr:uid="{25115A9B-B357-42FD-B1AC-232114B311C3}">
       <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S24" xr:uid="{2F04C272-1E8B-47DF-A0A3-277723DA9DED}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T24" xr:uid="{2F04C272-1E8B-47DF-A0A3-277723DA9DED}">
       <formula1>"National, Regional, City, Community"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R24" xr:uid="{32854381-4DCD-4E29-9E8B-45CF8418AA7A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S24" xr:uid="{32854381-4DCD-4E29-9E8B-45CF8418AA7A}">
       <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Other, Unknown"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q24" xr:uid="{064C5753-C5FB-40A5-96E4-2253C486FFE0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R24" xr:uid="{064C5753-C5FB-40A5-96E4-2253C486FFE0}">
       <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3201,27 +3490,27 @@
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="35.5" style="16" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="25.5" customWidth="1"/>
-    <col min="10" max="10" width="19.5" customWidth="1"/>
-    <col min="11" max="12" width="9.1640625"/>
-    <col min="13" max="13" width="42.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="11" max="12" width="9.140625"/>
+    <col min="13" max="13" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
@@ -3232,7 +3521,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="82" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="E1" s="60" t="s">
         <v>4</v>
@@ -3256,166 +3545,166 @@
         <v>10</v>
       </c>
       <c r="L1" s="38" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="M1" s="117" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="92" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="179" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="182" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="92" customFormat="1" ht="91.5" customHeight="1">
+      <c r="A2" s="214" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="198"/>
-      <c r="D2" s="201" t="s">
-        <v>112</v>
+      <c r="C2" s="232"/>
+      <c r="D2" s="235" t="s">
+        <v>123</v>
       </c>
       <c r="E2" s="88" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="89"/>
       <c r="G2" s="90" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="H2" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="195" t="s">
-        <v>114</v>
-      </c>
-      <c r="J2" s="186" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="191"/>
-      <c r="L2" s="188" t="s">
-        <v>115</v>
+      <c r="I2" s="253" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" s="221" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="226"/>
+      <c r="L2" s="223" t="s">
+        <v>126</v>
       </c>
       <c r="M2" s="118" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="180"/>
-      <c r="B3" s="183"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="202"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="45.75">
+      <c r="A3" s="215"/>
+      <c r="B3" s="218"/>
+      <c r="C3" s="233"/>
+      <c r="D3" s="236"/>
       <c r="E3" s="65" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="F3" s="66"/>
       <c r="G3" s="74"/>
       <c r="H3" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="196"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="189"/>
+        <v>31</v>
+      </c>
+      <c r="I3" s="230"/>
+      <c r="J3" s="222"/>
+      <c r="K3" s="227"/>
+      <c r="L3" s="224"/>
       <c r="M3" s="119"/>
     </row>
-    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="181"/>
-      <c r="B4" s="184"/>
-      <c r="C4" s="200"/>
-      <c r="D4" s="203"/>
+    <row r="4" spans="1:13" ht="45.75">
+      <c r="A4" s="216"/>
+      <c r="B4" s="219"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="237"/>
       <c r="E4" s="67" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="F4" s="60"/>
       <c r="G4" s="74">
         <v>1573000</v>
       </c>
       <c r="H4" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="197"/>
-      <c r="J4" s="187"/>
-      <c r="K4" s="192"/>
-      <c r="L4" s="189"/>
+        <v>36</v>
+      </c>
+      <c r="I4" s="231"/>
+      <c r="J4" s="222"/>
+      <c r="K4" s="227"/>
+      <c r="L4" s="224"/>
       <c r="M4" s="119"/>
     </row>
-    <row r="5" spans="1:13" s="92" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="185" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="177" t="s">
-        <v>37</v>
+    <row r="5" spans="1:13" s="92" customFormat="1" ht="76.5">
+      <c r="A5" s="220" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="212" t="s">
+        <v>38</v>
       </c>
       <c r="C5" s="89"/>
       <c r="D5" s="93" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="E5" s="89" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F5" s="89"/>
       <c r="G5" s="90" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="H5" s="89"/>
-      <c r="I5" s="178" t="s">
-        <v>122</v>
-      </c>
-      <c r="J5" s="187"/>
-      <c r="K5" s="192"/>
-      <c r="L5" s="189"/>
+      <c r="I5" s="213" t="s">
+        <v>134</v>
+      </c>
+      <c r="J5" s="222"/>
+      <c r="K5" s="227"/>
+      <c r="L5" s="224"/>
       <c r="M5" s="118" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="185"/>
-      <c r="B6" s="177"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="37.5" customHeight="1">
+      <c r="A6" s="220"/>
+      <c r="B6" s="212"/>
       <c r="C6" s="60"/>
       <c r="D6" s="66"/>
       <c r="E6" s="67" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="F6" s="60"/>
       <c r="G6" s="74">
         <v>15660</v>
       </c>
       <c r="H6" s="94" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="178"/>
-      <c r="J6" s="187"/>
-      <c r="K6" s="192"/>
-      <c r="L6" s="189"/>
+        <v>42</v>
+      </c>
+      <c r="I6" s="213"/>
+      <c r="J6" s="222"/>
+      <c r="K6" s="227"/>
+      <c r="L6" s="224"/>
       <c r="M6" s="119"/>
     </row>
-    <row r="7" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="185"/>
-      <c r="B7" s="177"/>
+    <row r="7" spans="1:13" ht="45" customHeight="1">
+      <c r="A7" s="220"/>
+      <c r="B7" s="212"/>
       <c r="C7" s="60"/>
       <c r="D7" s="66"/>
       <c r="E7" s="65" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F7" s="60"/>
       <c r="G7" s="74">
         <v>200</v>
       </c>
       <c r="H7" s="95" t="s">
-        <v>125</v>
-      </c>
-      <c r="I7" s="178"/>
-      <c r="J7" s="187"/>
-      <c r="K7" s="192"/>
-      <c r="L7" s="189"/>
+        <v>137</v>
+      </c>
+      <c r="I7" s="213"/>
+      <c r="J7" s="222"/>
+      <c r="K7" s="227"/>
+      <c r="L7" s="224"/>
       <c r="M7" s="119"/>
     </row>
-    <row r="8" spans="1:13" s="99" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="194"/>
-      <c r="B8" s="177" t="s">
-        <v>43</v>
+    <row r="8" spans="1:13" s="99" customFormat="1" ht="45.75">
+      <c r="A8" s="229"/>
+      <c r="B8" s="212" t="s">
+        <v>45</v>
       </c>
       <c r="C8" s="88"/>
       <c r="D8" s="96" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E8" s="88" t="s">
         <v>24</v>
@@ -3424,30 +3713,30 @@
         <v>0</v>
       </c>
       <c r="G8" s="90" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="H8" s="88" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I8" s="98" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="J8" s="88" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="192"/>
-      <c r="L8" s="189"/>
+        <v>49</v>
+      </c>
+      <c r="K8" s="227"/>
+      <c r="L8" s="224"/>
       <c r="M8" s="120" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9" s="194"/>
-      <c r="B9" s="177"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="13" customFormat="1" ht="60.75">
+      <c r="A9" s="229"/>
+      <c r="B9" s="212"/>
       <c r="C9" s="63"/>
       <c r="D9" s="64"/>
       <c r="E9" s="63" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="F9" s="69">
         <v>0</v>
@@ -3456,23 +3745,23 @@
         <v>80</v>
       </c>
       <c r="H9" s="63" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I9" s="63" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J9" s="63"/>
-      <c r="K9" s="192"/>
-      <c r="L9" s="189"/>
+      <c r="K9" s="227"/>
+      <c r="L9" s="224"/>
       <c r="M9" s="121"/>
     </row>
-    <row r="10" spans="1:13" s="13" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A10" s="194"/>
-      <c r="B10" s="177"/>
+    <row r="10" spans="1:13" s="13" customFormat="1" ht="76.5">
+      <c r="A10" s="229"/>
+      <c r="B10" s="212"/>
       <c r="C10" s="63"/>
       <c r="D10" s="64"/>
       <c r="E10" s="63" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="F10" s="69">
         <v>0</v>
@@ -3481,157 +3770,157 @@
         <v>2</v>
       </c>
       <c r="H10" s="63" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I10" s="63" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J10" s="63"/>
-      <c r="K10" s="193"/>
-      <c r="L10" s="190"/>
+      <c r="K10" s="228"/>
+      <c r="L10" s="225"/>
       <c r="M10" s="121"/>
     </row>
-    <row r="11" spans="1:13" ht="160" x14ac:dyDescent="0.2">
-      <c r="A11" s="176" t="s">
-        <v>131</v>
-      </c>
-      <c r="B11" s="177" t="s">
-        <v>132</v>
+    <row r="11" spans="1:13" ht="183">
+      <c r="A11" s="211" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="212" t="s">
+        <v>144</v>
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="85" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E11" s="63" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="72" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G11" s="77">
         <v>1.1200000000000001</v>
       </c>
       <c r="H11" s="72" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="I11" s="64" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J11" s="71" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="K11" s="62"/>
       <c r="L11" s="62"/>
       <c r="M11" s="119"/>
     </row>
-    <row r="12" spans="1:13" s="92" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A12" s="176"/>
-      <c r="B12" s="177"/>
+    <row r="12" spans="1:13" s="92" customFormat="1" ht="106.5">
+      <c r="A12" s="211"/>
+      <c r="B12" s="212"/>
       <c r="C12" s="100"/>
       <c r="D12" s="101" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E12" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="102" t="s">
-        <v>57</v>
-      </c>
       <c r="G12" s="103" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H12" s="102" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I12" s="104" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="J12" s="100" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="K12" s="105"/>
       <c r="L12" s="105"/>
       <c r="M12" s="118" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="92" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A13" s="176"/>
-      <c r="B13" s="177"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="92" customFormat="1" ht="91.5">
+      <c r="A13" s="211"/>
+      <c r="B13" s="212"/>
       <c r="C13" s="100"/>
       <c r="D13" s="101" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E13" s="100" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="F13" s="102" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G13" s="103" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H13" s="102" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I13" s="104" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="J13" s="100" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="K13" s="105"/>
       <c r="L13" s="105"/>
       <c r="M13" s="118" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="288" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="321">
       <c r="A14" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="177" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="B14" s="212" t="s">
+        <v>69</v>
       </c>
       <c r="C14" s="75" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D14" s="84" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="E14" s="77" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F14" s="76" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G14" s="76">
         <v>17.09</v>
       </c>
       <c r="H14" s="74" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="I14" s="74" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="J14" s="71" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K14" s="62"/>
       <c r="L14" s="62"/>
       <c r="M14" s="119"/>
     </row>
-    <row r="15" spans="1:13" ht="272" x14ac:dyDescent="0.2">
-      <c r="A15" s="178"/>
-      <c r="B15" s="177"/>
+    <row r="15" spans="1:13" ht="305.25">
+      <c r="A15" s="213"/>
+      <c r="B15" s="212"/>
       <c r="C15" s="75" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D15" s="84" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="E15" s="77" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F15" s="84">
         <v>30268</v>
@@ -3640,13 +3929,13 @@
         <v>110000</v>
       </c>
       <c r="H15" s="106" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I15" s="74" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J15" s="71" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K15" s="107">
         <v>0.4</v>
@@ -3654,71 +3943,71 @@
       <c r="L15" s="62"/>
       <c r="M15" s="119"/>
     </row>
-    <row r="16" spans="1:13" s="92" customFormat="1" ht="176" x14ac:dyDescent="0.2">
-      <c r="A16" s="178"/>
-      <c r="B16" s="177"/>
+    <row r="16" spans="1:13" s="92" customFormat="1" ht="167.25">
+      <c r="A16" s="213"/>
+      <c r="B16" s="212"/>
       <c r="C16" s="108" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D16" s="91" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="E16" s="103" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F16" s="90"/>
       <c r="G16" s="109"/>
       <c r="I16" s="90" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="J16" s="110" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K16" s="105"/>
       <c r="L16" s="105"/>
       <c r="M16" s="122" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="96" x14ac:dyDescent="0.2">
-      <c r="A17" s="178"/>
-      <c r="B17" s="177"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="106.5">
+      <c r="A17" s="213"/>
+      <c r="B17" s="212"/>
       <c r="C17" s="75" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D17" s="64" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="E17" s="77" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F17" s="74"/>
       <c r="G17" s="64">
         <v>1220</v>
       </c>
       <c r="H17" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="62" t="s">
         <v>73</v>
-      </c>
-      <c r="I17" s="74" t="s">
-        <v>74</v>
-      </c>
-      <c r="J17" s="62" t="s">
-        <v>67</v>
       </c>
       <c r="K17" s="62"/>
       <c r="L17" s="62"/>
       <c r="M17" s="119"/>
     </row>
-    <row r="18" spans="1:13" ht="176" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="167.25">
       <c r="A18" s="78" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B18" s="79" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C18" s="62"/>
       <c r="D18" s="83" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="E18" s="80" t="s">
         <v>19</v>
@@ -3726,90 +4015,90 @@
       <c r="F18" s="73"/>
       <c r="G18" s="74"/>
       <c r="H18" s="80" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="I18" s="64" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J18" s="68" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="K18" s="62"/>
       <c r="L18" s="62"/>
       <c r="M18" s="119"/>
     </row>
-    <row r="19" spans="1:13" s="92" customFormat="1" ht="160" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" s="92" customFormat="1" ht="183">
       <c r="A19" s="105"/>
       <c r="B19" s="111" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C19" s="112"/>
       <c r="D19" s="96" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="E19" s="104" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F19" s="113">
         <v>0</v>
       </c>
       <c r="G19" s="90" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="H19" s="104" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="I19" s="104" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="J19" s="114" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="K19" s="105"/>
       <c r="L19" s="105"/>
       <c r="M19" s="123" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="92" customFormat="1" ht="320" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="92" customFormat="1" ht="336">
       <c r="A20" s="105"/>
       <c r="B20" s="88" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C20" s="112"/>
       <c r="D20" s="96" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="E20" s="104" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F20" s="113">
         <v>0.7</v>
       </c>
       <c r="G20" s="90"/>
       <c r="H20" s="104" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I20" s="104" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="J20" s="114" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="K20" s="105"/>
       <c r="L20" s="105"/>
       <c r="M20" s="124" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="92" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="92" customFormat="1" ht="106.5">
       <c r="A21" s="62"/>
       <c r="B21" s="70" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="84" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="E21" s="70" t="s">
         <v>19</v>
@@ -3821,26 +4110,26 @@
         <v>1</v>
       </c>
       <c r="H21" s="70" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="I21" s="70" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="J21" s="87" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="K21" s="62"/>
       <c r="L21" s="62"/>
       <c r="M21" s="125"/>
     </row>
-    <row r="22" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="91.5">
       <c r="A22" s="62"/>
       <c r="B22" s="70" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C22" s="81"/>
       <c r="D22" s="86" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="E22" s="70" t="s">
         <v>19</v>
@@ -3852,29 +4141,29 @@
         <v>3</v>
       </c>
       <c r="H22" s="70" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="I22" s="70" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J22" s="87" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="K22" s="62"/>
       <c r="L22" s="62"/>
       <c r="M22" s="119"/>
     </row>
-    <row r="23" spans="1:13" s="92" customFormat="1" ht="350" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="92" customFormat="1" ht="381.75">
       <c r="A23" s="105"/>
       <c r="B23" s="104" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C23" s="115"/>
       <c r="D23" s="116" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="E23" s="104" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F23" s="100">
         <v>326</v>
@@ -3883,50 +4172,50 @@
         <v>1000</v>
       </c>
       <c r="H23" s="104" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="I23" s="104" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="J23" s="114" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="K23" s="105"/>
       <c r="L23" s="105"/>
       <c r="M23" s="118" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="350" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="336">
       <c r="A24" s="77">
         <v>106912</v>
       </c>
       <c r="B24" s="64" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C24" s="77"/>
       <c r="D24" s="84" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E24" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="64" t="s">
         <v>117</v>
-      </c>
-      <c r="F24" s="64" t="s">
-        <v>107</v>
       </c>
       <c r="G24" s="74"/>
       <c r="H24" s="64" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="I24" s="64" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="J24" s="87" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K24" s="62"/>
       <c r="L24" s="67" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M24" s="119"/>
     </row>
@@ -3980,25 +4269,25 @@
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A4"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="35.5" style="16" customWidth="1"/>
-    <col min="9" max="9" width="25.5" customWidth="1"/>
-    <col min="10" max="10" width="19.5" customWidth="1"/>
-    <col min="11" max="11" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4009,7 +4298,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="59" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -4030,14 +4319,14 @@
         <v>9</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="80" x14ac:dyDescent="0.2">
-      <c r="A2" s="212" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="207" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="91.5">
+      <c r="A2" s="246" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="241" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="1"/>
@@ -4052,62 +4341,62 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I2" s="204" t="s">
-        <v>171</v>
+        <v>124</v>
+      </c>
+      <c r="I2" s="238" t="s">
+        <v>183</v>
       </c>
       <c r="J2" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="204" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="80" x14ac:dyDescent="0.2">
-      <c r="A3" s="213"/>
-      <c r="B3" s="208"/>
+        <v>27</v>
+      </c>
+      <c r="K2" s="238" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="76.5">
+      <c r="A3" s="247"/>
+      <c r="B3" s="242"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="17" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="I3" s="205"/>
+        <v>185</v>
+      </c>
+      <c r="I3" s="239"/>
       <c r="J3" s="41"/>
-      <c r="K3" s="205"/>
-    </row>
-    <row r="4" spans="1:11" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="214"/>
-      <c r="B4" s="209"/>
+      <c r="K3" s="239"/>
+    </row>
+    <row r="4" spans="1:11" ht="60.75">
+      <c r="A4" s="248"/>
+      <c r="B4" s="243"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="7" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="I4" s="206"/>
+        <v>186</v>
+      </c>
+      <c r="I4" s="240"/>
       <c r="J4" s="42"/>
-      <c r="K4" s="206"/>
-    </row>
-    <row r="5" spans="1:11" ht="96" x14ac:dyDescent="0.2">
-      <c r="A5" s="212" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="207" t="s">
-        <v>37</v>
+      <c r="K4" s="240"/>
+    </row>
+    <row r="5" spans="1:11" ht="106.5">
+      <c r="A5" s="246" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="241" t="s">
+        <v>38</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="8">
@@ -4119,77 +4408,77 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="I5" s="204" t="s">
-        <v>176</v>
+        <v>187</v>
+      </c>
+      <c r="I5" s="238" t="s">
+        <v>188</v>
       </c>
       <c r="J5" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="204" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="213"/>
-      <c r="B6" s="208"/>
+        <v>27</v>
+      </c>
+      <c r="K5" s="238" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="45.75">
+      <c r="A6" s="247"/>
+      <c r="B6" s="242"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="7" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="I6" s="205"/>
+        <v>190</v>
+      </c>
+      <c r="I6" s="239"/>
       <c r="J6" s="41"/>
-      <c r="K6" s="205"/>
-    </row>
-    <row r="7" spans="1:11" ht="96" x14ac:dyDescent="0.2">
-      <c r="A7" s="213"/>
-      <c r="B7" s="208"/>
+      <c r="K6" s="239"/>
+    </row>
+    <row r="7" spans="1:11" ht="106.5">
+      <c r="A7" s="247"/>
+      <c r="B7" s="242"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="17" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="1"/>
       <c r="H7" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I7" s="205"/>
+        <v>137</v>
+      </c>
+      <c r="I7" s="239"/>
       <c r="J7" s="42"/>
-      <c r="K7" s="206"/>
-    </row>
-    <row r="8" spans="1:11" ht="160" x14ac:dyDescent="0.2">
-      <c r="A8" s="214"/>
-      <c r="B8" s="209"/>
+      <c r="K7" s="240"/>
+    </row>
+    <row r="8" spans="1:11" ht="167.25">
+      <c r="A8" s="248"/>
+      <c r="B8" s="243"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="I8" s="206"/>
+        <v>193</v>
+      </c>
+      <c r="I8" s="240"/>
       <c r="J8" s="55" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8" s="56"/>
     </row>
-    <row r="9" spans="1:11" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="215" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" s="207" t="s">
-        <v>43</v>
+    <row r="9" spans="1:11" s="13" customFormat="1" ht="45.75">
+      <c r="A9" s="249" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="241" t="s">
+        <v>45</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="10">
@@ -4199,162 +4488,162 @@
         <v>24</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G9" s="11">
         <v>0</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="44" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K9" s="47" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A10" s="216"/>
-      <c r="B10" s="208"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="13" customFormat="1" ht="60.75">
+      <c r="A10" s="250"/>
+      <c r="B10" s="242"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G10" s="11">
         <v>0</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J10" s="45"/>
       <c r="K10" s="48"/>
     </row>
-    <row r="11" spans="1:11" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A11" s="217"/>
-      <c r="B11" s="209"/>
+    <row r="11" spans="1:11" s="13" customFormat="1" ht="45.75">
+      <c r="A11" s="251"/>
+      <c r="B11" s="243"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G11" s="11">
         <v>0</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="J11" s="46"/>
       <c r="K11" s="49" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="112" x14ac:dyDescent="0.2">
-      <c r="A12" s="210" t="s">
-        <v>131</v>
-      </c>
-      <c r="B12" s="211" t="s">
-        <v>132</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="137.25">
+      <c r="A12" s="244" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="245" t="s">
+        <v>144</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="50" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="J12" s="51" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="K12" s="52" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="64" x14ac:dyDescent="0.2">
-      <c r="A13" s="210"/>
-      <c r="B13" s="211"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="76.5">
+      <c r="A13" s="244"/>
+      <c r="B13" s="245"/>
       <c r="C13" s="14"/>
       <c r="D13" s="2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E13" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="35" t="s">
-        <v>57</v>
-      </c>
       <c r="G13" s="35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="K13" s="57" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="64" x14ac:dyDescent="0.2">
-      <c r="A14" s="210"/>
-      <c r="B14" s="211"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="60.75">
+      <c r="A14" s="244"/>
+      <c r="B14" s="245"/>
       <c r="C14" s="14"/>
       <c r="D14" s="2" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="K14" s="57" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -4365,53 +4654,53 @@
       <c r="H15" s="20"/>
       <c r="I15" s="18"/>
     </row>
-    <row r="16" spans="1:11" ht="288" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="321">
       <c r="A16" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="207" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="B16" s="241" t="s">
+        <v>69</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D16" s="23">
         <v>5356014</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K16" s="18"/>
     </row>
-    <row r="17" spans="1:11" ht="176" x14ac:dyDescent="0.2">
-      <c r="A17" s="204"/>
-      <c r="B17" s="208"/>
+    <row r="17" spans="1:11" ht="183">
+      <c r="A17" s="238"/>
+      <c r="B17" s="242"/>
       <c r="C17" s="22" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D17" s="23">
         <v>5356014</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="G17" s="23">
         <v>30268</v>
@@ -4420,73 +4709,73 @@
         <v>110000</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="1:11" ht="176" x14ac:dyDescent="0.2">
-      <c r="A18" s="205"/>
-      <c r="B18" s="208"/>
+    <row r="18" spans="1:11" ht="167.25">
+      <c r="A18" s="239"/>
+      <c r="B18" s="242"/>
       <c r="C18" s="22" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="23" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="J18" s="55" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="1:11" ht="96" x14ac:dyDescent="0.2">
-      <c r="A19" s="206"/>
-      <c r="B19" s="209"/>
+    <row r="19" spans="1:11" ht="106.5">
+      <c r="A19" s="240"/>
+      <c r="B19" s="243"/>
       <c r="C19" s="22" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21">
         <v>1220</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K19" s="18"/>
     </row>
-    <row r="20" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="106.5">
       <c r="A20" s="30" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="31">
@@ -4496,92 +4785,92 @@
         <v>19</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="G20" s="19"/>
       <c r="H20" s="33" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="55" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="K20" s="55" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="160" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="183">
       <c r="A21" s="18"/>
       <c r="B21" s="9" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="26">
         <v>150000</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="G21" s="27">
         <v>0</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="J21" s="54" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="K21" s="18"/>
     </row>
-    <row r="22" spans="1:11" ht="320" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="336">
       <c r="A22" s="18"/>
       <c r="B22" s="5" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="26">
         <v>600000</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G22" s="27">
         <v>0.7</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="J22" s="53" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="K22" s="18"/>
     </row>
-    <row r="23" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="106.5">
       <c r="A23" s="18"/>
       <c r="B23" s="12" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="26">
         <v>300000</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="G23" s="14">
         <v>0</v>
@@ -4590,17 +4879,17 @@
         <v>1</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="J23" s="53" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="K23" s="18"/>
     </row>
-    <row r="24" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="91.5">
       <c r="A24" s="18"/>
       <c r="B24" s="12" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="28">
@@ -4610,7 +4899,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G24" s="14">
         <v>1</v>
@@ -4619,27 +4908,27 @@
         <v>3</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J24" s="53" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="K24" s="18"/>
     </row>
-    <row r="25" spans="1:11" ht="350" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="381.75">
       <c r="A25" s="18"/>
       <c r="B25" s="12" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="28">
         <v>1250000</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G25" s="14">
         <v>326</v>
@@ -4648,41 +4937,41 @@
         <v>1000</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="J25" s="53" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="K25" s="18"/>
     </row>
-    <row r="26" spans="1:11" ht="304" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="336">
       <c r="A26" s="37">
         <v>106912</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C26" s="24"/>
       <c r="D26" s="34">
         <v>489000</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="H26" s="3" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="J26" s="55" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K26" s="18"/>
     </row>
@@ -4735,185 +5024,185 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="52.6640625" customWidth="1"/>
+    <col min="1" max="2" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="147" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="197" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="156" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="148" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="156" t="s">
+    <row r="2" spans="1:2" ht="45.75">
+      <c r="A2" s="254" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="198" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="254" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="148" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="156" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="148" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="156" t="s">
-        <v>211</v>
-      </c>
-      <c r="B5" s="148" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="96" x14ac:dyDescent="0.2">
-      <c r="A6" s="156" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="148" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="156" t="s">
-        <v>214</v>
-      </c>
-      <c r="B7" s="148" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="156" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="148" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="156" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="148" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="156" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="157" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="156" t="s">
-        <v>219</v>
-      </c>
-      <c r="B11" s="157" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A12" s="156" t="s">
+      <c r="B3" s="198" t="s">
         <v>221</v>
       </c>
-      <c r="B12" s="148" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="254" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="198" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="156" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="157" t="s">
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="254" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="156" t="s">
+      <c r="B5" s="198" t="s">
         <v>224</v>
       </c>
-      <c r="B14" s="157" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="91.5">
+      <c r="A6" s="254" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="198" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="156" t="s">
+    <row r="7" spans="1:2" ht="45.75">
+      <c r="A7" s="254" t="s">
         <v>226</v>
       </c>
-      <c r="B15" s="157" t="s">
+      <c r="B7" s="198" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="156" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="157" t="s">
+    <row r="8" spans="1:2" ht="45.75">
+      <c r="A8" s="254" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="198" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="156" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="148" t="s">
+    <row r="9" spans="1:2" ht="45.75">
+      <c r="A9" s="254" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="198" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="156" t="s">
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="254" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="255" t="s">
         <v>230</v>
       </c>
-      <c r="B18" s="157" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="254" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="64" x14ac:dyDescent="0.2">
-      <c r="A19" s="156" t="s">
+      <c r="B11" s="255" t="s">
         <v>232</v>
       </c>
-      <c r="B19" s="157" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="45.75">
+      <c r="A12" s="254" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="156" t="s">
+      <c r="B12" s="198" t="s">
         <v>234</v>
       </c>
-      <c r="B20" s="157" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="30.75">
+      <c r="A13" s="254" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="255" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" s="156" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="254" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" s="255" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30.75">
+      <c r="A15" s="254" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" s="255" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30.75">
+      <c r="A16" s="254" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="255" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30.75">
+      <c r="A17" s="254" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="198" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30.75">
+      <c r="A18" s="254" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" s="255" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="76.5">
+      <c r="A19" s="254" t="s">
+        <v>244</v>
+      </c>
+      <c r="B19" s="255" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30.75">
+      <c r="A20" s="254" t="s">
+        <v>246</v>
+      </c>
+      <c r="B20" s="255" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45.75">
+      <c r="A21" s="254" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="158" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="156" t="s">
-        <v>237</v>
-      </c>
-      <c r="B22" s="157" t="s">
-        <v>238</v>
+      <c r="B21" s="256" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30.75">
+      <c r="A22" s="254" t="s">
+        <v>249</v>
+      </c>
+      <c r="B22" s="255" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -4984,8 +5273,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -5010,6 +5299,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5089,6 +5379,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -5233,39 +5528,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
-    <ds:schemaRef ds:uri="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3011BB0-07FE-4680-800E-7F4C36F905EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
-    <ds:schemaRef ds:uri="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E36ED78C-029F-4A50-B3B7-CA985A738900}"/>
 </file>
--- a/01_Input/00_CO Validation/Bangladesh - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Bangladesh - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNDP-BD\Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="653" documentId="13_ncr:1_{F9E229CD-093B-4957-8526-AA7B64B04BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6F11B5D-5BEE-4400-A444-2EA03BC518C6}"/>
+  <xr:revisionPtr revIDLastSave="656" documentId="13_ncr:1_{F9E229CD-093B-4957-8526-AA7B64B04BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE47DFBB-AFFD-4ADD-986A-E01736B1750E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,7 +140,7 @@
     <t>Policy Population</t>
   </si>
   <si>
-    <t>115022</t>
+    <t>117898</t>
   </si>
   <si>
     <t>Promoting Energy-Related Low Carbon Urban Development in Bangladesh (LCUD)</t>
@@ -264,7 +264,7 @@
 Farmers and fishers are the users of the solar cold storage</t>
   </si>
   <si>
-    <t>93426</t>
+    <t>85984</t>
   </si>
   <si>
     <t>Local Government Initiative on Climate Change (LoGIC)</t>
@@ -1877,15 +1877,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1905,57 +1956,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2345,7 +2345,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="24" spans="1:21" ht="275.25">
       <c r="A24" s="69">
-        <v>106912</v>
+        <v>105918</v>
       </c>
       <c r="B24" s="69" t="s">
         <v>114</v>
@@ -3552,14 +3552,14 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="92" customFormat="1" ht="91.5" customHeight="1">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="231" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="217" t="s">
+      <c r="B2" s="234" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="232"/>
-      <c r="D2" s="235" t="s">
+      <c r="C2" s="224"/>
+      <c r="D2" s="227" t="s">
         <v>123</v>
       </c>
       <c r="E2" s="88" t="s">
@@ -3575,11 +3575,11 @@
       <c r="I2" s="253" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="221" t="s">
+      <c r="J2" s="211" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="226"/>
-      <c r="L2" s="223" t="s">
+      <c r="K2" s="216"/>
+      <c r="L2" s="213" t="s">
         <v>126</v>
       </c>
       <c r="M2" s="118" t="s">
@@ -3587,10 +3587,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="45.75">
-      <c r="A3" s="215"/>
-      <c r="B3" s="218"/>
-      <c r="C3" s="233"/>
-      <c r="D3" s="236"/>
+      <c r="A3" s="232"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="228"/>
       <c r="E3" s="65" t="s">
         <v>128</v>
       </c>
@@ -3599,17 +3599,17 @@
       <c r="H3" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="230"/>
-      <c r="J3" s="222"/>
-      <c r="K3" s="227"/>
-      <c r="L3" s="224"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="217"/>
+      <c r="L3" s="214"/>
       <c r="M3" s="119"/>
     </row>
     <row r="4" spans="1:13" ht="45.75">
-      <c r="A4" s="216"/>
-      <c r="B4" s="219"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="237"/>
+      <c r="A4" s="233"/>
+      <c r="B4" s="236"/>
+      <c r="C4" s="226"/>
+      <c r="D4" s="229"/>
       <c r="E4" s="67" t="s">
         <v>129</v>
       </c>
@@ -3620,17 +3620,17 @@
       <c r="H4" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="231"/>
-      <c r="J4" s="222"/>
-      <c r="K4" s="227"/>
-      <c r="L4" s="224"/>
+      <c r="I4" s="222"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="217"/>
+      <c r="L4" s="214"/>
       <c r="M4" s="119"/>
     </row>
     <row r="5" spans="1:13" s="92" customFormat="1" ht="76.5">
-      <c r="A5" s="220" t="s">
+      <c r="A5" s="237" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="212" t="s">
+      <c r="B5" s="220" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="89"/>
@@ -3645,19 +3645,19 @@
         <v>133</v>
       </c>
       <c r="H5" s="89"/>
-      <c r="I5" s="213" t="s">
+      <c r="I5" s="223" t="s">
         <v>134</v>
       </c>
-      <c r="J5" s="222"/>
-      <c r="K5" s="227"/>
-      <c r="L5" s="224"/>
+      <c r="J5" s="212"/>
+      <c r="K5" s="217"/>
+      <c r="L5" s="214"/>
       <c r="M5" s="118" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="37.5" customHeight="1">
-      <c r="A6" s="220"/>
-      <c r="B6" s="212"/>
+      <c r="A6" s="237"/>
+      <c r="B6" s="220"/>
       <c r="C6" s="60"/>
       <c r="D6" s="66"/>
       <c r="E6" s="67" t="s">
@@ -3670,15 +3670,15 @@
       <c r="H6" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="213"/>
-      <c r="J6" s="222"/>
-      <c r="K6" s="227"/>
-      <c r="L6" s="224"/>
+      <c r="I6" s="223"/>
+      <c r="J6" s="212"/>
+      <c r="K6" s="217"/>
+      <c r="L6" s="214"/>
       <c r="M6" s="119"/>
     </row>
     <row r="7" spans="1:13" ht="45" customHeight="1">
-      <c r="A7" s="220"/>
-      <c r="B7" s="212"/>
+      <c r="A7" s="237"/>
+      <c r="B7" s="220"/>
       <c r="C7" s="60"/>
       <c r="D7" s="66"/>
       <c r="E7" s="65" t="s">
@@ -3691,15 +3691,15 @@
       <c r="H7" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="I7" s="213"/>
-      <c r="J7" s="222"/>
-      <c r="K7" s="227"/>
-      <c r="L7" s="224"/>
+      <c r="I7" s="223"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="217"/>
+      <c r="L7" s="214"/>
       <c r="M7" s="119"/>
     </row>
     <row r="8" spans="1:13" s="99" customFormat="1" ht="45.75">
-      <c r="A8" s="229"/>
-      <c r="B8" s="212" t="s">
+      <c r="A8" s="219"/>
+      <c r="B8" s="220" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="88"/>
@@ -3724,15 +3724,15 @@
       <c r="J8" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="227"/>
-      <c r="L8" s="224"/>
+      <c r="K8" s="217"/>
+      <c r="L8" s="214"/>
       <c r="M8" s="120" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="13" customFormat="1" ht="60.75">
-      <c r="A9" s="229"/>
-      <c r="B9" s="212"/>
+      <c r="A9" s="219"/>
+      <c r="B9" s="220"/>
       <c r="C9" s="63"/>
       <c r="D9" s="64"/>
       <c r="E9" s="63" t="s">
@@ -3751,13 +3751,13 @@
         <v>53</v>
       </c>
       <c r="J9" s="63"/>
-      <c r="K9" s="227"/>
-      <c r="L9" s="224"/>
+      <c r="K9" s="217"/>
+      <c r="L9" s="214"/>
       <c r="M9" s="121"/>
     </row>
     <row r="10" spans="1:13" s="13" customFormat="1" ht="76.5">
-      <c r="A10" s="229"/>
-      <c r="B10" s="212"/>
+      <c r="A10" s="219"/>
+      <c r="B10" s="220"/>
       <c r="C10" s="63"/>
       <c r="D10" s="64"/>
       <c r="E10" s="63" t="s">
@@ -3776,15 +3776,15 @@
         <v>55</v>
       </c>
       <c r="J10" s="63"/>
-      <c r="K10" s="228"/>
-      <c r="L10" s="225"/>
+      <c r="K10" s="218"/>
+      <c r="L10" s="215"/>
       <c r="M10" s="121"/>
     </row>
     <row r="11" spans="1:13" ht="183">
-      <c r="A11" s="211" t="s">
+      <c r="A11" s="230" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="212" t="s">
+      <c r="B11" s="220" t="s">
         <v>144</v>
       </c>
       <c r="C11" s="71"/>
@@ -3814,8 +3814,8 @@
       <c r="M11" s="119"/>
     </row>
     <row r="12" spans="1:13" s="92" customFormat="1" ht="106.5">
-      <c r="A12" s="211"/>
-      <c r="B12" s="212"/>
+      <c r="A12" s="230"/>
+      <c r="B12" s="220"/>
       <c r="C12" s="100"/>
       <c r="D12" s="101" t="s">
         <v>148</v>
@@ -3845,8 +3845,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="92" customFormat="1" ht="91.5">
-      <c r="A13" s="211"/>
-      <c r="B13" s="212"/>
+      <c r="A13" s="230"/>
+      <c r="B13" s="220"/>
       <c r="C13" s="100"/>
       <c r="D13" s="101" t="s">
         <v>151</v>
@@ -3879,7 +3879,7 @@
       <c r="A14" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="212" t="s">
+      <c r="B14" s="220" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="75" t="s">
@@ -3911,8 +3911,8 @@
       <c r="M14" s="119"/>
     </row>
     <row r="15" spans="1:13" ht="305.25">
-      <c r="A15" s="213"/>
-      <c r="B15" s="212"/>
+      <c r="A15" s="223"/>
+      <c r="B15" s="220"/>
       <c r="C15" s="75" t="s">
         <v>70</v>
       </c>
@@ -3944,8 +3944,8 @@
       <c r="M15" s="119"/>
     </row>
     <row r="16" spans="1:13" s="92" customFormat="1" ht="167.25">
-      <c r="A16" s="213"/>
-      <c r="B16" s="212"/>
+      <c r="A16" s="223"/>
+      <c r="B16" s="220"/>
       <c r="C16" s="108" t="s">
         <v>70</v>
       </c>
@@ -3970,8 +3970,8 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="106.5">
-      <c r="A17" s="213"/>
-      <c r="B17" s="212"/>
+      <c r="A17" s="223"/>
+      <c r="B17" s="220"/>
       <c r="C17" s="75" t="s">
         <v>70</v>
       </c>
@@ -4221,6 +4221,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
     <mergeCell ref="J2:J7"/>
     <mergeCell ref="L2:L10"/>
     <mergeCell ref="K2:K10"/>
@@ -4230,14 +4238,6 @@
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -5211,68 +5211,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
-      <UserInfo>
-        <DisplayName>Akiko Yamamoto</DisplayName>
-        <AccountId>84</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Arif Mohammad Faisal</DisplayName>
-        <AccountId>1690</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Maliha Muzammil</DisplayName>
-        <AccountId>1969</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Van Nguyen</DisplayName>
-        <AccountId>1970</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Riad Meddeb</DisplayName>
-        <AccountId>9</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Benjamin Keller</DisplayName>
-        <AccountId>1227</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Bahtiyar Kurt</DisplayName>
-        <AccountId>206</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Stefano Pistolese</DisplayName>
-        <AccountId>772</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -5527,8 +5465,70 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
+      <UserInfo>
+        <DisplayName>Akiko Yamamoto</DisplayName>
+        <AccountId>84</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Arif Mohammad Faisal</DisplayName>
+        <AccountId>1690</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Maliha Muzammil</DisplayName>
+        <AccountId>1969</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Van Nguyen</DisplayName>
+        <AccountId>1970</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Riad Meddeb</DisplayName>
+        <AccountId>9</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Benjamin Keller</DisplayName>
+        <AccountId>1227</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Bahtiyar Kurt</DisplayName>
+        <AccountId>206</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Stefano Pistolese</DisplayName>
+        <AccountId>772</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E36ED78C-029F-4A50-B3B7-CA985A738900}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5536,5 +5536,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E36ED78C-029F-4A50-B3B7-CA985A738900}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>